--- a/data_processing_elements-SHS.xlsx
+++ b/data_processing_elements-SHS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlaforme\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA30B5D-1C99-448E-A3C9-C724E9A0A302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB2842A-FA71-4682-BDF1-19445046B0A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
   <sheets>
     <sheet name="data_processing_elements" sheetId="8" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="498">
   <si>
     <t>index</t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>comment_question_for_cohort</t>
-  </si>
-  <si>
-    <t>response_from_cohort</t>
   </si>
   <si>
     <t>adm_id</t>
@@ -585,12 +582,6 @@
     <t>Frequency of alcohol consumption</t>
   </si>
   <si>
-    <t>0 = Never/almost never ; 
-1 = Monthly ; 
-2 = Weekly ; 
-3 = Daily/almost daily</t>
-  </si>
-  <si>
     <t>smk_smoking_status</t>
   </si>
   <si>
@@ -609,11 +600,6 @@
   </si>
   <si>
     <t>Current smoking frequency</t>
-  </si>
-  <si>
-    <t>1 = Monthly ;
-2 = Weekly ;
-3 = Daily/almost daily ;</t>
   </si>
   <si>
     <t>smk_smoking_quantity</t>
@@ -1328,14 +1314,6 @@
   </si>
   <si>
     <t>Assuming beer, wine and spirits have respectively 5%, 12% and 40% alcohol</t>
-  </si>
-  <si>
-    <t>rowSums(mutate(.,
-temp_b3 = b3*(300*0.05*0.7893),
-temp_b4 = b4*(175*0.12*0.7893),
-temp_b5 = b5*(35*0.4*0.7893) %&gt;%
-select(temp_b3, temp_b4, temp_b5), 
-na.rm = TRUE</t>
   </si>
   <si>
     <t>Should we use the average standard drink quantity in Singapour to calculate this variable? https://iard.org/science-resources/detail/drinking-guidelines-general-population
@@ -1727,12 +1705,190 @@
 l3_sports___423 == 0 ~ 0L;
 ELSE ~ NA_integer_)</t>
   </si>
+  <si>
+    <t>date format wrong, more digits expected</t>
+  </si>
+  <si>
+    <t>categorical</t>
+  </si>
+  <si>
+    <t>Year of birth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">system a little complex https://en.wikipedia.org/wiki/Education_in_Singapore#Primary_education
+</t>
+  </si>
+  <si>
+    <t>confirmed by cohort (Derived_Race)</t>
+  </si>
+  <si>
+    <t>if kept as decimal, should we use average?
+E.g. 20-40 hours =30 hours</t>
+  </si>
+  <si>
+    <t>normal workweek in singapore is 40h/w (most people work 40h/w) so not sure it would be adequate to transform 20-40 to 30 or 40-50 to 45. I don't know</t>
+  </si>
+  <si>
+    <t>Was ther a -7 cat for employment description?</t>
+  </si>
+  <si>
+    <t>"-9" not an available category in the datashcema
+-9 were removed</t>
+  </si>
+  <si>
+    <t>variable in data is 100% urban, confirm the comment in data dictionary (location)</t>
+  </si>
+  <si>
+    <t>Will be available by the end of 2024</t>
+  </si>
+  <si>
+    <t>when pm_bodyfat_perc is available, "We use DEXA machine operated by trained health screening staff"</t>
+  </si>
+  <si>
+    <t>Confirm coding: 
+health screening form has 2 check boxes, Random and Fasting
+data dictionary mentions "Fasting (or blank)"
+and the variable is not in the report</t>
+  </si>
+  <si>
+    <t>unit converted using https://www.diabetessociety.com.au/documents/HbA1cConversionTable.pdf</t>
+  </si>
+  <si>
+    <t>units provided by email (2023-05-18)</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/4337382/</t>
+  </si>
+  <si>
+    <t>as.numeric(TG)</t>
+  </si>
+  <si>
+    <t>put FFQ details here</t>
+  </si>
+  <si>
+    <t>Will be available by Q1 2025</t>
+  </si>
+  <si>
+    <t>https://www.mdpi.com/2072-6643/8/9/528</t>
+  </si>
+  <si>
+    <t>not in report, only edited data dict. Must confirm</t>
+  </si>
+  <si>
+    <t>rowSums(mutate(.,
+temp_b3 = b3*(300*0.05*0.7893),
+temp_b4 = b4*(175*0.12*0.7893),
+temp_b5 = b5*(35*0.4*0.7893)) %&gt;%
+select(temp_b3, temp_b4, temp_b5), na.rm = TRUE)</t>
+  </si>
+  <si>
+    <t>confirm conversion</t>
+  </si>
+  <si>
+    <t>0 = Never/almost never ; 
+1 = Weekly ; 
+2 = Monthly ; 
+3 = Daily/almost daily</t>
+  </si>
+  <si>
+    <t>drink type</t>
+  </si>
+  <si>
+    <t>1 = Occasionaly;
+2 = Daily/almost daily ;</t>
+  </si>
+  <si>
+    <t>mentionned in data dictionary, but no info and questionnaire not enough</t>
+  </si>
+  <si>
+    <t>CVD was an exclusion criteria</t>
+  </si>
+  <si>
+    <t>1=yes, 2=no</t>
+  </si>
+  <si>
+    <t>Cancer was an exclusion criteria</t>
+  </si>
+  <si>
+    <t>How is your high cholesterol being treated?您如何治疗您的高胆固醇？</t>
+  </si>
+  <si>
+    <t>1, Western medication 
+2, Traditional Chinese medication
+3, Lifestyle change (eg. Diet, exercise, etc.) 
+4, None of the above</t>
+  </si>
+  <si>
+    <t>How is your high blood pressure being treated?</t>
+  </si>
+  <si>
+    <t>How is your diabetes being treated?</t>
+  </si>
+  <si>
+    <t>Will be available around November 2024 (Variable is called M4 and is continous with 1 decimal place)</t>
+  </si>
+  <si>
+    <t>Will be available around November (variable name will be comp3 and response options will be &gt;7 hours = 0, 6-7 hours=1, 5-6 hours=2, &lt;5 hours =3)</t>
+  </si>
+  <si>
+    <t>Will be available around November (variable name will be comp5 and response options will be: not during the past month=0, less than once per month=1, once or twice a week=2, three or more times a week=3)</t>
+  </si>
+  <si>
+    <t>case_when(
+l1hr + (l1min/60) + l2hr + (l2min/60) &lt;= 1 ~ 1L;
+l1hr + (l1min/60) + l2hr + (l2min/60) &gt; 1 &amp; l1hr + (l1min/60) + l2hr + (l2min/60) &lt;= 3 ~ 2L;
+l1hr + (l1min/60) + l2hr + (l2min/60) &gt; 3 ~ 3L;
+ELSE ~ NA_integer_)</t>
+  </si>
+  <si>
+    <t>mentionned in data dictionary, but not in questionnaire (no current access)</t>
+  </si>
+  <si>
+    <t>continous</t>
+  </si>
+  <si>
+    <t>Do you walk for at least 10 minutes continuously to get to and from places?;
+Do you use a bicycle (pedal cycle) for at least 10 minutes continuously to get to and from places?[Participant: This does not refer to motorized cycles, whether by electric or engine version.]</t>
+  </si>
+  <si>
+    <t>1 = yes, 2 = no</t>
+  </si>
+  <si>
+    <t>Construct label</t>
+  </si>
+  <si>
+    <t>Data cleaning</t>
+  </si>
+  <si>
+    <t>Publications</t>
+  </si>
+  <si>
+    <t>Variable type</t>
+  </si>
+  <si>
+    <t>internal_comment</t>
+  </si>
+  <si>
+    <t>validation_comment</t>
+  </si>
+  <si>
+    <t>response_from_cohort_step1</t>
+  </si>
+  <si>
+    <t>response_to_cohort_step1</t>
+  </si>
+  <si>
+    <t>response_from_cohort_step2</t>
+  </si>
+  <si>
+    <t>response_to_cohort_step2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1750,21 +1906,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1823,11 +1964,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1850,24 +1990,29 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1889,7 +2034,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2205,40 +2350,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E8173B-75E7-48BF-A0E5-5399D58BE189}">
-  <dimension ref="A1:U84"/>
+  <dimension ref="A1:AD84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O2" sqref="O2:S84"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="54.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="13"/>
-    <col min="8" max="8" width="8.5703125" style="13" customWidth="1"/>
-    <col min="9" max="9" width="36.7109375" style="14" customWidth="1"/>
-    <col min="10" max="10" width="25.140625" style="13" customWidth="1"/>
-    <col min="11" max="11" width="26.42578125" style="13" customWidth="1"/>
-    <col min="12" max="12" width="30.140625" style="13" customWidth="1"/>
-    <col min="13" max="13" width="31.85546875" style="14" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="13" customWidth="1"/>
-    <col min="15" max="15" width="21.28515625" style="13" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" style="13" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" style="13" customWidth="1"/>
-    <col min="18" max="18" width="17.5703125" style="13" customWidth="1"/>
-    <col min="19" max="19" width="19.85546875" style="13" customWidth="1"/>
-    <col min="20" max="21" width="9.140625" style="13"/>
+    <col min="1" max="1" width="7" style="12" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="52.42578125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="54.85546875" style="12"/>
+    <col min="6" max="6" width="13.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="12" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="54.85546875" style="13"/>
+    <col min="10" max="11" width="54.85546875" style="12"/>
+    <col min="12" max="12" width="23.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="60.7109375" style="13" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="21" width="54.85546875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2263,7 +2402,7 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -2273,4224 +2412,4593 @@
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="T1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="U1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="V1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="W1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="X1" t="s">
+        <v>492</v>
+      </c>
+      <c r="Y1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Z1" t="s">
+        <v>493</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>494</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>495</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>496</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="12"/>
+      <c r="I2" s="11"/>
       <c r="J2" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="L2" s="1"/>
-      <c r="M2" s="12"/>
+      <c r="M2" s="11"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="V2" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="12"/>
+        <v>31</v>
+      </c>
+      <c r="I3" s="11"/>
       <c r="J3" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="L3" s="1"/>
-      <c r="M3" s="12"/>
+      <c r="M3" s="11"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="U3" s="1"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V3" t="s">
+        <v>32</v>
+      </c>
+      <c r="W3" t="s">
+        <v>443</v>
+      </c>
+      <c r="X3" t="s">
+        <v>446</v>
+      </c>
+      <c r="Y3" s="14" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="12" t="s">
-        <v>38</v>
+      <c r="I4" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>320</v>
+        <v>34</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="11" t="s">
+        <v>316</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R4" s="1" t="s">
+      <c r="V4" t="s">
+        <v>38</v>
+      </c>
+      <c r="W4" t="s">
         <v>39</v>
       </c>
-      <c r="S4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="F5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="12"/>
+      <c r="I5" s="11"/>
       <c r="J5" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="M5" s="12"/>
-      <c r="N5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O5" s="1"/>
+        <v>319</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="P5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V5" t="s">
+        <v>45</v>
+      </c>
+      <c r="W5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="114" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="12" t="s">
-        <v>50</v>
+      <c r="I6" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>326</v>
+        <v>311</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="11" t="s">
+        <v>322</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>327</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
       <c r="T6" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="U6" s="1"/>
-    </row>
-    <row r="7" spans="1:21" ht="171" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V6" t="s">
+        <v>38</v>
+      </c>
+      <c r="W6" t="s">
+        <v>324</v>
+      </c>
+      <c r="X6" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="R7" s="1"/>
+      <c r="S7" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V7" t="s">
         <v>56</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L7" s="1" t="s">
+      <c r="W7">
+        <v>3</v>
+      </c>
+      <c r="X7" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y7" t="s">
         <v>329</v>
       </c>
-      <c r="M7" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S7" s="1">
-        <v>3</v>
-      </c>
-      <c r="T7" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="U7" s="1"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:30" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="12" t="s">
-        <v>61</v>
+      <c r="I8" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>335</v>
+        <v>303</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="11" t="s">
+        <v>331</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W8" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="12" t="s">
-        <v>67</v>
+      <c r="I9" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="12"/>
+      <c r="M9" s="11"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="1" t="s">
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V9" t="s">
+        <v>61</v>
+      </c>
+      <c r="W9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="114" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="12"/>
+      <c r="I10" s="11"/>
       <c r="J10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>338</v>
+        <v>69</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="11" t="s">
+        <v>334</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-    </row>
-    <row r="11" spans="1:21" ht="384.75" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="V10" t="s">
+        <v>61</v>
+      </c>
+      <c r="W10" t="s">
+        <v>61</v>
+      </c>
+      <c r="X10" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="180" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="12"/>
+      <c r="I11" s="11"/>
       <c r="J11" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>341</v>
+        <v>304</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="11" t="s">
+        <v>337</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="S11" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="R11" s="1"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V11" t="s">
+        <v>205</v>
+      </c>
+      <c r="W11" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="12" t="s">
-        <v>78</v>
+      <c r="I12" s="15" t="s">
+        <v>77</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>335</v>
+        <v>303</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="11" t="s">
+        <v>331</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V12" t="s">
+        <v>38</v>
+      </c>
+      <c r="W12" t="s">
+        <v>340</v>
+      </c>
+      <c r="Z12" s="14" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="12" t="s">
-        <v>82</v>
+      <c r="I13" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>346</v>
+        <v>289</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="11" t="s">
+        <v>342</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V13" t="s">
+        <v>38</v>
+      </c>
+      <c r="W13" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="12" t="s">
-        <v>86</v>
+      <c r="I14" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>346</v>
+        <v>289</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="11" t="s">
+        <v>342</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V14" t="s">
+        <v>38</v>
+      </c>
+      <c r="W14" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="12" t="s">
-        <v>89</v>
+      <c r="I15" s="15" t="s">
+        <v>88</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="M15" s="12"/>
+        <v>305</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="M15" s="11" t="s">
+        <v>345</v>
+      </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="1" t="s">
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="U15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S15" s="1">
+      <c r="V15" t="s">
+        <v>56</v>
+      </c>
+      <c r="W15">
         <v>2</v>
       </c>
-      <c r="T15" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="U15" s="1"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="X15" t="s">
+        <v>455</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="12"/>
+      <c r="I16" s="11"/>
       <c r="J16" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="M16" s="12"/>
-      <c r="N16" s="1" t="s">
-        <v>351</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="L16" s="1"/>
+      <c r="M16" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V16" t="s">
+        <v>32</v>
+      </c>
+      <c r="W16" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="12" t="s">
-        <v>95</v>
+      <c r="I17" s="15" t="s">
+        <v>94</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="M17" s="12"/>
-      <c r="N17" s="1" t="s">
-        <v>351</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="L17" s="1"/>
+      <c r="M17" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="Q17" s="1"/>
       <c r="R17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V17" t="s">
+        <v>32</v>
+      </c>
+      <c r="W17" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="12"/>
+      <c r="I18" s="11"/>
       <c r="J18" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="M18" s="12"/>
-      <c r="N18" s="1" t="s">
-        <v>98</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="L18" s="1"/>
+      <c r="M18" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V18" t="s">
+        <v>45</v>
+      </c>
+      <c r="W18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="12" t="s">
-        <v>95</v>
+      <c r="I19" s="15" t="s">
+        <v>94</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="M19" s="12"/>
-      <c r="N19" s="1" t="s">
-        <v>98</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="L19" s="1"/>
+      <c r="M19" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="Q19" s="1"/>
       <c r="R19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V19" t="s">
+        <v>32</v>
+      </c>
+      <c r="W19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="12"/>
+      <c r="I20" s="11"/>
       <c r="J20" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="L20" s="1"/>
+      <c r="M20" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="R20" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="L20" s="1" t="s">
+      <c r="S20" s="1"/>
+      <c r="T20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V20" t="s">
+        <v>32</v>
+      </c>
+      <c r="W20" t="s">
         <v>353</v>
       </c>
-      <c r="M20" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-    </row>
-    <row r="21" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:25" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="12"/>
+      <c r="I21" s="11"/>
       <c r="J21" s="6" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="M21" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="N21" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="L21" s="1"/>
+      <c r="M21" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
       <c r="Q21" s="1" t="s">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>33</v>
+        <v>355</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>426</v>
+        <v>298</v>
       </c>
       <c r="T21" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="U21" s="1"/>
-    </row>
-    <row r="22" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V21" t="s">
+        <v>32</v>
+      </c>
+      <c r="W21" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="12" t="s">
-        <v>95</v>
+      <c r="I22" s="15" t="s">
+        <v>94</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="12"/>
+      <c r="M22" s="11"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
-      <c r="P22" s="1" t="s">
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="U22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="T22" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="U22" s="1"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V22" t="s">
+        <v>32</v>
+      </c>
+      <c r="W22" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="H23" s="1"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="13" t="s">
-        <v>56</v>
+      <c r="I23" s="11"/>
+      <c r="J23" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="12"/>
+      <c r="M23" s="11"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
-      <c r="P23" s="1" t="s">
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="U23" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q23" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T23" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="U23" s="1"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V23" t="s">
+        <v>61</v>
+      </c>
+      <c r="W23" t="s">
+        <v>61</v>
+      </c>
+      <c r="X23" t="s">
+        <v>456</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="E24" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="13" t="s">
-        <v>56</v>
+      <c r="I24" s="11"/>
+      <c r="J24" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="12"/>
+      <c r="M24" s="11"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
-      <c r="P24" s="1" t="s">
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="U24" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T24" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="U24" s="1"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V24" t="s">
+        <v>61</v>
+      </c>
+      <c r="W24" t="s">
+        <v>61</v>
+      </c>
+      <c r="X24" t="s">
+        <v>457</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="H25" s="1"/>
-      <c r="I25" s="12"/>
+      <c r="I25" s="11"/>
       <c r="J25" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="M25" s="12"/>
+        <v>360</v>
+      </c>
+      <c r="L25" s="1"/>
+      <c r="M25" s="11" t="s">
+        <v>347</v>
+      </c>
       <c r="N25" s="1"/>
-      <c r="O25" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
       <c r="S25" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V25" t="s">
+        <v>32</v>
+      </c>
+      <c r="W25" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="F26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H26" s="1"/>
-      <c r="I26" s="12"/>
+      <c r="I26" s="11"/>
       <c r="J26" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="M26" s="12"/>
+        <v>362</v>
+      </c>
+      <c r="L26" s="1"/>
+      <c r="M26" s="11" t="s">
+        <v>347</v>
+      </c>
       <c r="N26" s="1"/>
-      <c r="O26" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
       <c r="S26" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V26" t="s">
+        <v>32</v>
+      </c>
+      <c r="W26" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" s="1"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="L27" s="1"/>
+      <c r="M27" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="N27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="M27" s="12"/>
-      <c r="N27" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="O27" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R27" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="S27" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V27" t="s">
+        <v>32</v>
+      </c>
+      <c r="W27" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="H28" s="1"/>
-      <c r="I28" s="12"/>
+      <c r="I28" s="11"/>
       <c r="J28" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-      <c r="M28" s="12"/>
+      <c r="M28" s="11"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
-      <c r="P28" s="1" t="s">
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U28" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q28" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-    </row>
-    <row r="29" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="V28" t="s">
+        <v>61</v>
+      </c>
+      <c r="W28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="E29" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="12" t="s">
-        <v>130</v>
+      <c r="I29" s="15" t="s">
+        <v>129</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="L29" s="1"/>
-      <c r="M29" s="12" t="s">
-        <v>24</v>
-      </c>
+      <c r="M29" s="11"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
-      <c r="P29" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="P29" s="1"/>
       <c r="Q29" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="S29" s="6" t="s">
-        <v>430</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="R29" s="1"/>
+      <c r="S29" s="6"/>
       <c r="T29" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="U29" s="1"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V29" t="s">
+        <v>205</v>
+      </c>
+      <c r="W29" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="X29" s="14" t="s">
+        <v>458</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="H30" s="1"/>
-      <c r="I30" s="12"/>
+      <c r="I30" s="11"/>
       <c r="J30" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="12"/>
+      <c r="M30" s="11"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
-      <c r="P30" s="1" t="s">
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U30" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q30" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V30" t="s">
+        <v>61</v>
+      </c>
+      <c r="W30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="H31" s="1"/>
-      <c r="I31" s="12"/>
+      <c r="I31" s="11"/>
       <c r="J31" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="M31" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>139</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="L31" s="1"/>
+      <c r="M31" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="N31" s="1"/>
       <c r="O31" s="1"/>
-      <c r="P31" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="P31" s="1"/>
       <c r="Q31" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>431</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="S31" s="1"/>
       <c r="T31" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="U31" s="1"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V31" t="s">
+        <v>32</v>
+      </c>
+      <c r="W31" t="s">
+        <v>427</v>
+      </c>
+      <c r="X31" t="s">
+        <v>459</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="H32" s="1"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L32" s="1"/>
+      <c r="M32" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H32" s="1"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="M32" s="12"/>
-      <c r="N32" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1" t="s">
+      <c r="S32" s="1"/>
+      <c r="T32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U32" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R32" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V32" t="s">
+        <v>45</v>
+      </c>
+      <c r="W32" t="s">
+        <v>45</v>
+      </c>
+      <c r="X32" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="E33" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="12"/>
+      <c r="I33" s="11"/>
       <c r="J33" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="M33" s="12"/>
-      <c r="N33" s="1" t="s">
-        <v>139</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="L33" s="1"/>
+      <c r="M33" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="N33" s="1"/>
       <c r="O33" s="1"/>
-      <c r="P33" s="1" t="s">
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q33" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R33" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="S33" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V33" t="s">
+        <v>45</v>
+      </c>
+      <c r="W33" t="s">
+        <v>45</v>
+      </c>
+      <c r="X33" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="E34" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H34" s="1"/>
-      <c r="I34" s="12"/>
+      <c r="I34" s="11"/>
       <c r="J34" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="M34" s="12"/>
-      <c r="N34" s="1" t="s">
-        <v>139</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="L34" s="1"/>
+      <c r="M34" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="N34" s="1"/>
       <c r="O34" s="1"/>
-      <c r="P34" s="1" t="s">
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q34" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R34" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="S34" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V34" t="s">
+        <v>45</v>
+      </c>
+      <c r="W34" t="s">
+        <v>45</v>
+      </c>
+      <c r="X34" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="E35" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H35" s="1"/>
-      <c r="I35" s="12"/>
+      <c r="I35" s="11"/>
       <c r="J35" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="M35" s="12"/>
-      <c r="N35" s="1" t="s">
-        <v>139</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="L35" s="1"/>
+      <c r="M35" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="N35" s="1"/>
       <c r="O35" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="P35" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q35" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S35" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V35" t="s">
+        <v>32</v>
+      </c>
+      <c r="W35" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="E36" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H36" s="1"/>
-      <c r="I36" s="12"/>
+      <c r="I36" s="11"/>
       <c r="J36" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="M36" s="12"/>
-      <c r="N36" s="1" t="s">
-        <v>139</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="L36" s="1"/>
+      <c r="M36" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="N36" s="1"/>
       <c r="O36" s="1"/>
-      <c r="P36" s="1" t="s">
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U36" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q36" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R36" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V36" t="s">
+        <v>32</v>
+      </c>
+      <c r="W36" t="s">
+        <v>462</v>
+      </c>
+      <c r="X36" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="H37" s="1"/>
-      <c r="I37" s="12"/>
+      <c r="I37" s="11"/>
       <c r="J37" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="12"/>
+      <c r="M37" s="11"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
-      <c r="P37" s="1" t="s">
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U37" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q37" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="R37" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-    </row>
-    <row r="38" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+      <c r="V37" t="s">
+        <v>61</v>
+      </c>
+      <c r="W37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="H38" s="1"/>
-      <c r="I38" s="12"/>
+      <c r="I38" s="11"/>
       <c r="J38" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="M38" s="12"/>
-      <c r="N38" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="O38" s="1"/>
+        <v>373</v>
+      </c>
+      <c r="L38" s="1"/>
+      <c r="M38" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1" t="s">
+        <v>463</v>
+      </c>
       <c r="P38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="S38" s="1"/>
+      <c r="T38" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="U38" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q38" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="R38" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T38" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="U38" s="1"/>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V38" t="s">
+        <v>61</v>
+      </c>
+      <c r="W38" t="s">
+        <v>61</v>
+      </c>
+      <c r="X38" t="s">
+        <v>464</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="F39" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="12" t="s">
-        <v>159</v>
+      <c r="I39" s="15" t="s">
+        <v>158</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-      <c r="M39" s="12"/>
+      <c r="M39" s="11"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
-      <c r="P39" s="1" t="s">
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U39" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q39" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="R39" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S39" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V39" t="s">
+        <v>61</v>
+      </c>
+      <c r="W39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="F40" s="1" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H40" s="1"/>
-      <c r="I40" s="12"/>
+      <c r="I40" s="11"/>
       <c r="J40" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="M40" s="12"/>
-      <c r="N40" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="O40" s="1"/>
+        <v>375</v>
+      </c>
+      <c r="L40" s="1"/>
+      <c r="M40" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1" t="s">
+        <v>463</v>
+      </c>
       <c r="P40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="S40" s="1"/>
+      <c r="T40" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="U40" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q40" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="S40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T40" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="U40" s="1"/>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V40" t="s">
+        <v>45</v>
+      </c>
+      <c r="W40" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="F41" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="12" t="s">
-        <v>159</v>
+      <c r="I41" s="15" t="s">
+        <v>158</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-      <c r="M41" s="12"/>
+      <c r="M41" s="11"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
-      <c r="P41" s="1" t="s">
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U41" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q41" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="R41" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S41" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V41" t="s">
+        <v>61</v>
+      </c>
+      <c r="W41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="H42" s="1"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="L42" s="1"/>
+      <c r="M42" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H42" s="1"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="M42" s="12"/>
-      <c r="N42" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1" t="s">
+      <c r="S42" s="1"/>
+      <c r="T42" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="U42" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q42" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R42" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="S42" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T42" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="U42" s="1"/>
-    </row>
-    <row r="43" spans="1:21" ht="199.5" x14ac:dyDescent="0.25">
+      <c r="V42" t="s">
+        <v>45</v>
+      </c>
+      <c r="W42" t="s">
+        <v>45</v>
+      </c>
+      <c r="X42" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" ht="90" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="F43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="H43" s="1"/>
-      <c r="I43" s="12"/>
+      <c r="I43" s="11"/>
       <c r="J43" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="L43" s="1"/>
+      <c r="M43" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="K43" s="6" t="s">
+      <c r="T43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V43" t="s">
+        <v>32</v>
+      </c>
+      <c r="W43" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="X43" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y43" s="14" t="s">
         <v>385</v>
       </c>
-      <c r="L43" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="M43" s="12"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q43" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R43" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S43" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="T43" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="U43" s="1"/>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:25" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="E44" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="12" t="s">
-        <v>175</v>
+      <c r="I44" s="15" t="s">
+        <v>469</v>
       </c>
       <c r="J44" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="L44" s="1"/>
+      <c r="M44" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q44" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="T44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V44" t="s">
+        <v>38</v>
+      </c>
+      <c r="W44" t="s">
         <v>390</v>
       </c>
-      <c r="K44" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="M44" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="P44" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q44" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R44" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S44" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="T44" s="1"/>
-      <c r="U44" s="1"/>
-    </row>
-    <row r="45" spans="1:21" ht="99.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="F45" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="12" t="s">
-        <v>179</v>
+      <c r="I45" s="15" t="s">
+        <v>177</v>
       </c>
       <c r="J45" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="L45" s="1"/>
+      <c r="M45" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="R45" s="1"/>
+      <c r="S45" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="K45" s="6" t="s">
+      <c r="T45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V45" t="s">
+        <v>205</v>
+      </c>
+      <c r="W45" s="14" t="s">
         <v>396</v>
       </c>
-      <c r="L45" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="M45" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="P45" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q45" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R45" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="S45" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="T45" s="1"/>
-      <c r="U45" s="1"/>
-    </row>
-    <row r="46" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:25" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="12" t="s">
-        <v>182</v>
+      <c r="I46" s="15" t="s">
+        <v>471</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="M46" s="12" t="s">
-        <v>398</v>
+        <v>392</v>
+      </c>
+      <c r="L46" s="1"/>
+      <c r="M46" s="15" t="s">
+        <v>393</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
-      <c r="P46" s="1" t="s">
+      <c r="P46" s="1"/>
+      <c r="Q46" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="U46" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q46" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="R46" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S46" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="U46" s="1"/>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V46" t="s">
+        <v>61</v>
+      </c>
+      <c r="W46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H47" s="1"/>
-      <c r="I47" s="12"/>
+      <c r="I47" s="11"/>
       <c r="J47" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="L47" s="1"/>
+      <c r="M47" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V47" t="s">
+        <v>32</v>
+      </c>
+      <c r="W47" t="s">
         <v>401</v>
       </c>
-      <c r="K47" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="M47" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q47" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R47" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S47" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="T47" s="1"/>
-      <c r="U47" s="1"/>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:25" ht="51" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="12" t="s">
-        <v>188</v>
+      <c r="I48" s="15" t="s">
+        <v>185</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
-      <c r="M48" s="12"/>
+      <c r="M48" s="11"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
-      <c r="P48" s="1" t="s">
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="U48" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q48" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="R48" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S48" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T48" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="U48" s="1"/>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V48" t="s">
+        <v>61</v>
+      </c>
+      <c r="W48" t="s">
+        <v>61</v>
+      </c>
+      <c r="X48" t="s">
+        <v>472</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>190</v>
+        <v>186</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="12" t="s">
-        <v>192</v>
+      <c r="I49" s="15" t="s">
+        <v>189</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
-      <c r="M49" s="12"/>
+      <c r="M49" s="11"/>
       <c r="O49" s="1"/>
-      <c r="P49" s="1" t="s">
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="U49" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q49" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="R49" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S49" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T49" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="U49" s="1"/>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V49" t="s">
+        <v>61</v>
+      </c>
+      <c r="W49" t="s">
+        <v>61</v>
+      </c>
+      <c r="X49" t="s">
+        <v>473</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
-      <c r="I50" s="12" t="s">
-        <v>192</v>
+      <c r="I50" s="15" t="s">
+        <v>189</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
-      <c r="M50" s="12"/>
+      <c r="M50" s="11"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
-      <c r="P50" s="1" t="s">
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U50" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q50" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="R50" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S50" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T50" s="1"/>
-      <c r="U50" s="1"/>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V50" t="s">
+        <v>61</v>
+      </c>
+      <c r="W50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="12" t="s">
-        <v>192</v>
+      <c r="I51" s="15" t="s">
+        <v>189</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
-      <c r="M51" s="12"/>
+      <c r="M51" s="11"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
-      <c r="P51" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="P51" s="1"/>
       <c r="Q51" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R51" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S51" s="1" t="s">
-        <v>298</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
       <c r="T51" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="U51" s="1"/>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="U51" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V51" t="s">
+        <v>38</v>
+      </c>
+      <c r="W51" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
-      <c r="I52" s="12" t="s">
-        <v>200</v>
+      <c r="I52" s="15" t="s">
+        <v>197</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
-      <c r="M52" s="12"/>
+      <c r="M52" s="11"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
-      <c r="P52" s="1" t="s">
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U52" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q52" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="R52" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S52" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T52" s="1"/>
-      <c r="U52" s="1"/>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V52" t="s">
+        <v>61</v>
+      </c>
+      <c r="W52" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
-      <c r="I53" s="12" t="s">
-        <v>192</v>
+      <c r="I53" s="15" t="s">
+        <v>189</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-      <c r="M53" s="12"/>
+      <c r="M53" s="11"/>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
-      <c r="P53" s="1" t="s">
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="U53" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q53" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="R53" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S53" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T53" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="U53" s="1"/>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V53" t="s">
+        <v>61</v>
+      </c>
+      <c r="W53" t="s">
+        <v>61</v>
+      </c>
+      <c r="X53" t="s">
+        <v>475</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
-      <c r="I54" s="12" t="s">
-        <v>192</v>
+      <c r="I54" s="15" t="s">
+        <v>189</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="M54" s="12" t="s">
-        <v>411</v>
+        <v>405</v>
+      </c>
+      <c r="L54" s="1"/>
+      <c r="M54" s="11" t="s">
+        <v>406</v>
       </c>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
-      <c r="P54" s="1" t="s">
+      <c r="P54" s="1"/>
+      <c r="Q54" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U54" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q54" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R54" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S54" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="T54" s="1"/>
-      <c r="U54" s="1"/>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V54" t="s">
+        <v>38</v>
+      </c>
+      <c r="W54" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" ht="57" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
-      <c r="I55" s="12" t="s">
-        <v>192</v>
+      <c r="I55" s="15" t="s">
+        <v>189</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
-      <c r="M55" s="12"/>
+      <c r="M55" s="11" t="s">
+        <v>476</v>
+      </c>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
-      <c r="P55" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q55" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R55" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S55" s="1" t="s">
-        <v>448</v>
-      </c>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
       <c r="T55" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="U55" s="1"/>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="U55" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V55" t="s">
+        <v>38</v>
+      </c>
+      <c r="W55" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" ht="57" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
-      <c r="I56" s="12" t="s">
-        <v>192</v>
+      <c r="I56" s="15" t="s">
+        <v>189</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
-      <c r="M56" s="12"/>
+      <c r="M56" s="11" t="s">
+        <v>478</v>
+      </c>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
-      <c r="P56" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q56" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R56" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S56" s="1" t="s">
-        <v>448</v>
-      </c>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
       <c r="T56" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="U56" s="1"/>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="U56" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V56" t="s">
+        <v>38</v>
+      </c>
+      <c r="W56" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" ht="57" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
-      <c r="I57" s="12" t="s">
-        <v>192</v>
+      <c r="I57" s="15" t="s">
+        <v>189</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
-      <c r="M57" s="12"/>
+      <c r="M57" s="11" t="s">
+        <v>479</v>
+      </c>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
-      <c r="P57" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q57" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R57" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S57" s="1" t="s">
-        <v>448</v>
-      </c>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
       <c r="T57" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="U57" s="1"/>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="U57" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V57" t="s">
+        <v>38</v>
+      </c>
+      <c r="W57" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
-      <c r="I58" s="12" t="s">
-        <v>192</v>
+      <c r="I58" s="15" t="s">
+        <v>189</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
-      <c r="M58" s="12"/>
+      <c r="M58" s="11"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
-      <c r="P58" s="1" t="s">
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U58" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q58" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="R58" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S58" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T58" s="1"/>
-      <c r="U58" s="1"/>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V58" t="s">
+        <v>61</v>
+      </c>
+      <c r="W58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
-      <c r="I59" s="12"/>
+      <c r="I59" s="11"/>
       <c r="J59" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
-      <c r="M59" s="12"/>
+      <c r="M59" s="11"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
-      <c r="P59" s="1" t="s">
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U59" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q59" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="R59" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S59" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T59" s="1"/>
-      <c r="U59" s="1"/>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V59" t="s">
+        <v>61</v>
+      </c>
+      <c r="W59" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
-      <c r="I60" s="12"/>
+      <c r="I60" s="11"/>
       <c r="J60" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
-      <c r="M60" s="12"/>
+      <c r="M60" s="11"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
-      <c r="P60" s="1" t="s">
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U60" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q60" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="R60" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S60" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T60" s="1"/>
-      <c r="U60" s="1"/>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V60" t="s">
+        <v>61</v>
+      </c>
+      <c r="W60" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
-      <c r="I61" s="12"/>
+      <c r="I61" s="11"/>
       <c r="J61" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
-      <c r="M61" s="12"/>
+      <c r="M61" s="11"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
-      <c r="P61" s="1" t="s">
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U61" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q61" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="R61" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S61" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T61" s="1"/>
-      <c r="U61" s="1"/>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V61" t="s">
+        <v>61</v>
+      </c>
+      <c r="W61" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
-      <c r="I62" s="12"/>
+      <c r="I62" s="11"/>
       <c r="J62" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
-      <c r="M62" s="12"/>
+      <c r="M62" s="11"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
-      <c r="P62" s="1" t="s">
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U62" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q62" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="R62" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S62" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T62" s="1"/>
-      <c r="U62" s="1"/>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V62" t="s">
+        <v>61</v>
+      </c>
+      <c r="W62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
-      <c r="I63" s="12"/>
+      <c r="I63" s="11"/>
       <c r="J63" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
-      <c r="M63" s="12"/>
+      <c r="M63" s="11"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
-      <c r="P63" s="1" t="s">
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U63" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q63" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="R63" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S63" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T63" s="1"/>
-      <c r="U63" s="1"/>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V63" t="s">
+        <v>61</v>
+      </c>
+      <c r="W63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
-      <c r="I64" s="12"/>
+      <c r="I64" s="11"/>
       <c r="J64" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
-      <c r="M64" s="12"/>
+      <c r="M64" s="11"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
-      <c r="P64" s="1" t="s">
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U64" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q64" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="R64" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S64" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T64" s="1"/>
-      <c r="U64" s="1"/>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V64" t="s">
+        <v>61</v>
+      </c>
+      <c r="W64" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
-      <c r="I65" s="12"/>
+      <c r="I65" s="11"/>
       <c r="J65" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
-      <c r="M65" s="12"/>
+      <c r="M65" s="11"/>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
-      <c r="P65" s="1" t="s">
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U65" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q65" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="R65" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S65" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T65" s="1"/>
-      <c r="U65" s="1"/>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V65" t="s">
+        <v>61</v>
+      </c>
+      <c r="W65" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
-      <c r="I66" s="12" t="s">
-        <v>232</v>
+      <c r="I66" s="15" t="s">
+        <v>229</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
-      <c r="M66" s="12"/>
+      <c r="M66" s="11"/>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
-      <c r="P66" s="1" t="s">
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U66" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q66" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="R66" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S66" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T66" s="1"/>
-      <c r="U66" s="1"/>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V66" t="s">
+        <v>61</v>
+      </c>
+      <c r="W66" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H67" s="1"/>
-      <c r="I67" s="12"/>
+      <c r="I67" s="11"/>
       <c r="J67" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
-      <c r="M67" s="12"/>
+      <c r="M67" s="11"/>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
-      <c r="P67" s="1" t="s">
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="U67" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q67" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="R67" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S67" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T67" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="U67" s="1"/>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V67" t="s">
+        <v>61</v>
+      </c>
+      <c r="W67" t="s">
+        <v>61</v>
+      </c>
+      <c r="X67" t="s">
+        <v>480</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
-      <c r="I68" s="12" t="s">
-        <v>238</v>
+      <c r="I68" s="15" t="s">
+        <v>235</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
-      <c r="M68" s="12"/>
+      <c r="M68" s="11"/>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
-      <c r="P68" s="1" t="s">
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="U68" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q68" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="R68" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S68" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T68" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="U68" s="1"/>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V68" t="s">
+        <v>61</v>
+      </c>
+      <c r="W68" t="s">
+        <v>61</v>
+      </c>
+      <c r="X68" t="s">
+        <v>481</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
-      <c r="I69" s="12" t="s">
-        <v>241</v>
+      <c r="I69" s="15" t="s">
+        <v>238</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
-      <c r="M69" s="12"/>
+      <c r="M69" s="11"/>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
-      <c r="P69" s="1" t="s">
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="U69" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q69" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="R69" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S69" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T69" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="U69" s="1"/>
-    </row>
-    <row r="70" spans="1:21" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="V69" t="s">
+        <v>61</v>
+      </c>
+      <c r="W69" t="s">
+        <v>61</v>
+      </c>
+      <c r="X69" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" ht="195" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
-      <c r="I70" s="12" t="s">
-        <v>244</v>
+      <c r="I70" s="15" t="s">
+        <v>241</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
-      <c r="M70" s="12"/>
+      <c r="M70" s="11"/>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
-      <c r="P70" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q70" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R70" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="S70" s="6" t="s">
-        <v>433</v>
-      </c>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="6"/>
       <c r="T70" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="U70" s="1"/>
-    </row>
-    <row r="71" spans="1:21" ht="384.75" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="U70" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V70" t="s">
+        <v>205</v>
+      </c>
+      <c r="W70" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="X70" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" ht="150" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
-      <c r="I71" s="12" t="s">
-        <v>244</v>
+      <c r="I71" s="15" t="s">
+        <v>241</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
-      <c r="M71" s="12"/>
+      <c r="M71" s="11"/>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
-      <c r="P71" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q71" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R71" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="S71" s="6" t="s">
-        <v>434</v>
-      </c>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="6"/>
       <c r="T71" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="U71" s="1"/>
-    </row>
-    <row r="72" spans="1:21" ht="384.75" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="U71" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V71" t="s">
+        <v>205</v>
+      </c>
+      <c r="W71" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" ht="150" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
-      <c r="I72" s="12" t="s">
-        <v>244</v>
+      <c r="I72" s="15" t="s">
+        <v>241</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
-      <c r="M72" s="12"/>
+      <c r="M72" s="11"/>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
-      <c r="P72" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q72" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R72" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="S72" s="6" t="s">
-        <v>435</v>
-      </c>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="6"/>
       <c r="T72" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="U72" s="1"/>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="U72" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V72" t="s">
+        <v>205</v>
+      </c>
+      <c r="W72" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
-      <c r="I73" s="12" t="s">
-        <v>252</v>
+      <c r="I73" s="15" t="s">
+        <v>249</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
-      <c r="M73" s="12"/>
+      <c r="M73" s="11"/>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
-      <c r="P73" s="1" t="s">
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+      <c r="T73" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U73" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q73" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="R73" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S73" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T73" s="1"/>
-      <c r="U73" s="1"/>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V73" t="s">
+        <v>61</v>
+      </c>
+      <c r="W73" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
-      <c r="B74" s="13" t="s">
-        <v>315</v>
+      <c r="B74" s="12" t="s">
+        <v>312</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
-      <c r="I74" s="12" t="s">
-        <v>256</v>
+      <c r="I74" s="15" t="s">
+        <v>253</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
-      <c r="M74" s="12"/>
+      <c r="M74" s="11"/>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
-      <c r="P74" s="1" t="s">
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U74" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q74" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="R74" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S74" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T74" s="1"/>
-      <c r="U74" s="1"/>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V74" t="s">
+        <v>61</v>
+      </c>
+      <c r="W74" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
-      <c r="B75" s="13" t="s">
-        <v>315</v>
+      <c r="B75" s="12" t="s">
+        <v>312</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
-      <c r="I75" s="12" t="s">
-        <v>260</v>
+      <c r="I75" s="15" t="s">
+        <v>257</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
-      <c r="M75" s="12"/>
+      <c r="M75" s="11"/>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
-      <c r="P75" s="1" t="s">
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U75" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q75" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="R75" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S75" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T75" s="1"/>
-      <c r="U75" s="1"/>
-    </row>
-    <row r="76" spans="1:21" ht="142.5" x14ac:dyDescent="0.25">
+      <c r="V75" t="s">
+        <v>61</v>
+      </c>
+      <c r="W75" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H76" s="1"/>
-      <c r="I76" s="12"/>
+      <c r="I76" s="11"/>
       <c r="J76" s="6" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
-      <c r="M76" s="12"/>
+      <c r="M76" s="11"/>
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
-      <c r="P76" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q76" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R76" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S76" s="6" t="s">
-        <v>436</v>
-      </c>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="6"/>
       <c r="T76" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="U76" s="1"/>
-    </row>
-    <row r="77" spans="1:21" ht="409.5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="U76" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V76" t="s">
+        <v>32</v>
+      </c>
+      <c r="W76" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C77" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I77" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="D77" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="E77" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="F77" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I77" s="14" t="s">
-        <v>267</v>
-      </c>
       <c r="J77" s="6" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
-      <c r="M77" s="12"/>
+      <c r="M77" s="11"/>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
-      <c r="P77" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q77" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R77" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="S77" s="6" t="s">
-        <v>437</v>
-      </c>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="6"/>
       <c r="T77" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="U77" s="1"/>
-    </row>
-    <row r="78" spans="1:21" ht="128.25" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="U77" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V77" t="s">
+        <v>205</v>
+      </c>
+      <c r="W77" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="X77" t="s">
+        <v>484</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
-      <c r="I78" s="12" t="s">
-        <v>271</v>
+      <c r="I78" s="15" t="s">
+        <v>268</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
-      <c r="M78" s="12"/>
+      <c r="M78" s="11"/>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
-      <c r="P78" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="P78" s="1"/>
       <c r="Q78" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R78" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="S78" s="6" t="s">
-        <v>438</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="R78" s="1"/>
+      <c r="S78" s="6"/>
       <c r="T78" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="U78" s="1"/>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="U78" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V78" t="s">
+        <v>205</v>
+      </c>
+      <c r="W78" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" ht="51" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
-      <c r="I79" s="12" t="s">
-        <v>274</v>
+      <c r="I79" s="15" t="s">
+        <v>271</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
-      <c r="M79" s="12"/>
+      <c r="M79" s="11"/>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
-      <c r="P79" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q79" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="R79" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S79" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
       <c r="T79" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="U79" s="1"/>
-    </row>
-    <row r="80" spans="1:21" ht="409.5" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="U79" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="V79" t="s">
+        <v>61</v>
+      </c>
+      <c r="W79" t="s">
+        <v>61</v>
+      </c>
+      <c r="X79" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
-      <c r="I80" s="12" t="s">
-        <v>192</v>
+      <c r="I80" s="15" t="s">
+        <v>189</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
-      <c r="M80" s="12"/>
+      <c r="M80" s="11"/>
       <c r="N80" s="1"/>
-      <c r="O80" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="P80" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q80" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R80" s="1" t="s">
-        <v>208</v>
-      </c>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
       <c r="S80" s="6" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="T80" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="U80" s="1"/>
-    </row>
-    <row r="81" spans="1:21" ht="99.75" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="U80" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V80" t="s">
+        <v>205</v>
+      </c>
+      <c r="W80" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
-      <c r="I81" s="12" t="s">
-        <v>192</v>
+      <c r="I81" s="15" t="s">
+        <v>189</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
-      <c r="M81" s="12"/>
+      <c r="M81" s="15" t="s">
+        <v>486</v>
+      </c>
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
-      <c r="P81" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="P81" s="1"/>
       <c r="Q81" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R81" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="S81" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="T81" s="1"/>
-      <c r="U81" s="1"/>
-    </row>
-    <row r="82" spans="1:21" ht="409.5" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+      <c r="R81" s="1"/>
+      <c r="S81" s="6"/>
+      <c r="T81" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U81" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V81" t="s">
+        <v>205</v>
+      </c>
+      <c r="W81" s="14" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
-      <c r="I82" s="12" t="s">
-        <v>192</v>
+      <c r="I82" s="15" t="s">
+        <v>189</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
-      <c r="M82" s="12"/>
+      <c r="M82" s="11"/>
       <c r="N82" s="1"/>
-      <c r="O82" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="P82" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q82" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R82" s="1" t="s">
-        <v>208</v>
-      </c>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
       <c r="S82" s="6" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="T82" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="U82" s="1"/>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="U82" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V82" t="s">
+        <v>205</v>
+      </c>
+      <c r="W82" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
-      <c r="I83" s="12"/>
+      <c r="I83" s="11"/>
       <c r="J83" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
-      <c r="M83" s="12"/>
+      <c r="M83" s="11"/>
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
-      <c r="P83" s="1" t="s">
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U83" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q83" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="R83" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S83" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T83" s="1"/>
-      <c r="U83" s="1"/>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V83" t="s">
+        <v>61</v>
+      </c>
+      <c r="W83" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C84" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G84" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="D84" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="E84" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>290</v>
-      </c>
       <c r="H84" s="1"/>
-      <c r="I84" s="12"/>
+      <c r="I84" s="11"/>
       <c r="J84" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
-      <c r="M84" s="12"/>
+      <c r="M84" s="11"/>
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
-      <c r="P84" s="1" t="s">
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
+      <c r="T84" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U84" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q84" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="R84" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S84" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T84" s="1"/>
-      <c r="U84" s="1"/>
+      <c r="V84" t="s">
+        <v>61</v>
+      </c>
+      <c r="W84" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U84" xr:uid="{E2AE202E-3036-4C4F-A2B8-1E3109A6638C}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U84">
-      <sortCondition ref="B1"/>
-    </sortState>
-  </autoFilter>
-  <hyperlinks>
-    <hyperlink ref="T43" r:id="rId1" display="https://iard.org/science-resources/detail/drinking-guidelines-general-population" xr:uid="{4A6FE0E8-3147-4822-B6A3-B1AF9F6ABF4B}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data_processing_elements-SHS.xlsx
+++ b/data_processing_elements-SHS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB2842A-FA71-4682-BDF1-19445046B0A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABA3054-D2FE-4FAB-B52F-DDE837B8FE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
@@ -1480,13 +1480,6 @@
   </si>
   <si>
     <t>round(calculated_LDL, 2)</t>
-  </si>
-  <si>
-    <t>case_when(
-rowSums(mutate(., temp_l1min = l1min/60, temp_l1min = l1min/60) %&gt;% select(temp_l1min, temp_l2min, l1hr, l2hr), na.rm = TRUE) &lt;= 1 ~ 1L;
-rowSums(mutate(., temp_l1min = l1min/60, temp_l1min = l1min/60) %&gt;% select(temp_l1min, temp_l2min, l1hr, l2hr), na.rm = TRUE) &gt; 1 &amp; rowSums(mutate(., temp_l1min = l1min/60, temp_l1min = l1min/60) %&gt;% select(temp_l1min, temp_l2min, l1hr, l2hr), na.rm = TRUE) &lt;= 3 ~ 2L;
-rowSums(mutate(., temp_l1min = l1min/60, temp_l1min = l1min/60) %&gt;% select(temp_l1min, temp_l2min, l1hr, l2hr), na.rm = TRUE) &gt; 3 ~ 3L;
-ELSE ~ NA_integer_)</t>
   </si>
   <si>
     <t>case_when(
@@ -1882,6 +1875,13 @@
   </si>
   <si>
     <t>response_to_cohort_step2</t>
+  </si>
+  <si>
+    <t>case_when(
+rowSums(mutate(., temp_l1min = l1min/60, temp_l2min = l2min/60) %&gt;% select(temp_l1min, temp_l2min, l1hr, l2hr), na.rm = TRUE) &lt;= 1 ~ 1L;
+rowSums(mutate(., temp_l1min = l1min/60, temp_l2min = l2min/60) %&gt;% select(temp_l1min, temp_l2min, l1hr, l2hr), na.rm = TRUE) &gt; 1 &amp; rowSums(mutate(., temp_l1min = l1min/60, temp_l2min = l2min/60) %&gt;% select(temp_l1min, temp_l2min, l1hr, l2hr), na.rm = TRUE) &lt;= 3 ~ 2L;
+rowSums(mutate(., temp_l1min = l1min/60, temp_l2min = l2min/60) %&gt;% select(temp_l1min, temp_l2min, l1hr, l2hr), na.rm = TRUE) &gt; 3 ~ 3L;
+ELSE ~ NA_integer_)</t>
   </si>
 </sst>
 </file>
@@ -2352,11 +2352,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E8173B-75E7-48BF-A0E5-5399D58BE189}">
   <dimension ref="A1:AD84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="S66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="W70" sqref="W70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="54.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2412,19 +2412,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="M1" s="9" t="s">
         <v>11</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>490</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>491</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>12</v>
@@ -2448,25 +2448,25 @@
         <v>18</v>
       </c>
       <c r="X1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="Y1" t="s">
         <v>19</v>
       </c>
       <c r="Z1" t="s">
+        <v>492</v>
+      </c>
+      <c r="AA1" t="s">
         <v>493</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>494</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>495</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>496</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
@@ -2492,7 +2492,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="11"/>
       <c r="J2" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>296</v>
@@ -2515,7 +2515,7 @@
         <v>26</v>
       </c>
       <c r="W2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="75" x14ac:dyDescent="0.25">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>313</v>
@@ -2568,10 +2568,10 @@
         <v>32</v>
       </c>
       <c r="W3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="X3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="Y3" s="14" t="s">
         <v>314</v>
@@ -2614,7 +2614,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="Q4" s="6" t="s">
         <v>317</v>
@@ -2670,7 +2670,7 @@
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>23</v>
@@ -2730,7 +2730,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>323</v>
@@ -2750,7 +2750,7 @@
         <v>324</v>
       </c>
       <c r="X6" s="14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="Y6" t="s">
         <v>288</v>
@@ -2793,7 +2793,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="6"/>
       <c r="P7" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>327</v>
@@ -2815,7 +2815,7 @@
         <v>3</v>
       </c>
       <c r="X7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Y7" t="s">
         <v>329</v>
@@ -2858,7 +2858,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="Q8" s="6" t="s">
         <v>332</v>
@@ -2962,7 +2962,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="Q10" s="6" t="s">
         <v>335</v>
@@ -2982,10 +2982,10 @@
         <v>61</v>
       </c>
       <c r="X10" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="Z10" t="s">
         <v>451</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="180" x14ac:dyDescent="0.25">
@@ -3023,7 +3023,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="Q11" s="6" t="s">
         <v>338</v>
@@ -3043,7 +3043,7 @@
         <v>339</v>
       </c>
       <c r="Z11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="12" spans="1:30" ht="128.25" x14ac:dyDescent="0.25">
@@ -3083,7 +3083,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="Q12" s="6" t="s">
         <v>332</v>
@@ -3103,7 +3103,7 @@
         <v>340</v>
       </c>
       <c r="Z12" s="14" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="85.5" x14ac:dyDescent="0.25">
@@ -3143,7 +3143,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="Q13" s="6" t="s">
         <v>343</v>
@@ -3200,7 +3200,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="Q14" s="6" t="s">
         <v>343</v>
@@ -3273,7 +3273,7 @@
         <v>2</v>
       </c>
       <c r="X15" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="Y15" t="s">
         <v>346</v>
@@ -3727,7 +3727,7 @@
         <v>61</v>
       </c>
       <c r="X23" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="Y23" t="s">
         <v>358</v>
@@ -3780,7 +3780,7 @@
         <v>61</v>
       </c>
       <c r="X24" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="Y24" t="s">
         <v>358</v>
@@ -4052,7 +4052,7 @@
         <v>426</v>
       </c>
       <c r="X29" s="14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="Y29" t="s">
         <v>367</v>
@@ -4164,7 +4164,7 @@
         <v>427</v>
       </c>
       <c r="X31" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="Y31" t="s">
         <v>292</v>
@@ -4225,7 +4225,7 @@
         <v>45</v>
       </c>
       <c r="X32" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
@@ -4283,7 +4283,7 @@
         <v>45</v>
       </c>
       <c r="X33" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
@@ -4341,7 +4341,7 @@
         <v>45</v>
       </c>
       <c r="X34" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
@@ -4380,7 +4380,7 @@
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
@@ -4455,10 +4455,10 @@
         <v>32</v>
       </c>
       <c r="W36" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="X36" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
@@ -4546,7 +4546,7 @@
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="P38" s="1" t="s">
         <v>44</v>
@@ -4569,7 +4569,7 @@
         <v>61</v>
       </c>
       <c r="X38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Y38" t="s">
         <v>302</v>
@@ -4660,7 +4660,7 @@
       </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="P40" s="1" t="s">
         <v>44</v>
@@ -4771,7 +4771,7 @@
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="P42" s="1" t="s">
         <v>44</v>
@@ -4794,7 +4794,7 @@
         <v>45</v>
       </c>
       <c r="X42" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Y42" t="s">
         <v>377</v>
@@ -4852,10 +4852,10 @@
         <v>32</v>
       </c>
       <c r="W43" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="X43" t="s">
         <v>467</v>
-      </c>
-      <c r="X43" t="s">
-        <v>468</v>
       </c>
       <c r="Y43" s="14" t="s">
         <v>385</v>
@@ -4883,7 +4883,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>386</v>
@@ -4898,7 +4898,7 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="Q44" s="6" t="s">
         <v>389</v>
@@ -4999,7 +4999,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J46" s="6" t="s">
         <v>391</v>
@@ -5138,7 +5138,7 @@
         <v>61</v>
       </c>
       <c r="X48" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="Y48" t="s">
         <v>402</v>
@@ -5192,7 +5192,7 @@
         <v>61</v>
       </c>
       <c r="X49" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Y49" t="s">
         <v>198</v>
@@ -5281,7 +5281,7 @@
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
@@ -5399,7 +5399,7 @@
         <v>61</v>
       </c>
       <c r="X53" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="Y53" t="s">
         <v>403</v>
@@ -5490,13 +5490,13 @@
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
@@ -5510,7 +5510,7 @@
         <v>38</v>
       </c>
       <c r="W55" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="Y55" t="s">
         <v>198</v>
@@ -5546,13 +5546,13 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="11" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
@@ -5566,7 +5566,7 @@
         <v>38</v>
       </c>
       <c r="W56" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="Y56" t="s">
         <v>198</v>
@@ -5602,13 +5602,13 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="11" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
@@ -5622,7 +5622,7 @@
         <v>38</v>
       </c>
       <c r="W57" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="Y57" t="s">
         <v>198</v>
@@ -6104,7 +6104,7 @@
         <v>61</v>
       </c>
       <c r="X67" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="Y67" t="s">
         <v>198</v>
@@ -6159,7 +6159,7 @@
         <v>61</v>
       </c>
       <c r="X68" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="Y68" t="s">
         <v>198</v>
@@ -6214,7 +6214,7 @@
         <v>61</v>
       </c>
       <c r="X69" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Y69" t="s">
         <v>198</v>
@@ -6266,10 +6266,10 @@
         <v>205</v>
       </c>
       <c r="W70" s="14" t="s">
-        <v>429</v>
+        <v>497</v>
       </c>
       <c r="X70" s="14" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="Y70" t="s">
         <v>198</v>
@@ -6321,7 +6321,7 @@
         <v>205</v>
       </c>
       <c r="W71" s="14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="Y71" t="s">
         <v>198</v>
@@ -6373,7 +6373,7 @@
         <v>205</v>
       </c>
       <c r="W72" s="14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="Y72" t="s">
         <v>198</v>
@@ -6572,7 +6572,7 @@
         <v>32</v>
       </c>
       <c r="W76" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="Y76" t="s">
         <v>408</v>
@@ -6622,10 +6622,10 @@
         <v>205</v>
       </c>
       <c r="W77" s="14" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="X77" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="Y77" t="s">
         <v>408</v>
@@ -6665,7 +6665,7 @@
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="R78" s="1"/>
       <c r="S78" s="6"/>
@@ -6679,7 +6679,7 @@
         <v>205</v>
       </c>
       <c r="W78" s="14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="Y78" t="s">
         <v>198</v>
@@ -6765,7 +6765,7 @@
         <v>189</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
@@ -6776,7 +6776,7 @@
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
       <c r="S80" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="T80" s="7" t="s">
         <v>24</v>
@@ -6788,7 +6788,7 @@
         <v>205</v>
       </c>
       <c r="W80" s="14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="Y80" t="s">
         <v>198</v>
@@ -6824,13 +6824,13 @@
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
       <c r="Q81" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="R81" s="1"/>
       <c r="S81" s="6"/>
@@ -6844,7 +6844,7 @@
         <v>205</v>
       </c>
       <c r="W81" s="14" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="82" spans="1:25" ht="409.5" x14ac:dyDescent="0.25">
@@ -6872,7 +6872,7 @@
         <v>189</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
@@ -6883,7 +6883,7 @@
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
       <c r="S82" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="T82" s="7" t="s">
         <v>24</v>
@@ -6895,7 +6895,7 @@
         <v>205</v>
       </c>
       <c r="W82" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Y82" t="s">
         <v>198</v>

--- a/data_processing_elements-SHS.xlsx
+++ b/data_processing_elements-SHS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABA3054-D2FE-4FAB-B52F-DDE837B8FE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1E88D9-8DD6-43DF-9AAC-D0C2BA70E5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
@@ -1476,9 +1476,6 @@
 ELSE ~ NA_integer_)</t>
   </si>
   <si>
-    <t>(HBA1C*10.93) - 23.5</t>
-  </si>
-  <si>
     <t>round(calculated_LDL, 2)</t>
   </si>
   <si>
@@ -1493,40 +1490,6 @@
 rowSums(mutate(., temp_l2min = l2min/60) %&gt;% select(temp_l2min, l2hr), na.rm = TRUE) &lt;= 1 ~ 1L;
 rowSums(mutate(., temp_l2min = l2min/60) %&gt;% select(temp_l2min, l2hr), na.rm = TRUE) &gt; 1 &amp; rowSums(mutate(., temp_l2min = l2min/60) %&gt;% select(temp_l2min, l2hr), na.rm = TRUE) &lt;= 3 ~ 2L;
 rowSums(mutate(., temp_l2min = l2min/60) %&gt;% select(temp_l2min, l2hr), na.rm = TRUE) &gt; 3 ~ 3L;
-ELSE ~ NA_integer_)</t>
-  </si>
-  <si>
-    <t>rowSums(mutate(.,
-temp_l10min = l10min/60,
-temp_l12min = l12min/60) %&gt;%
-select(temp_l10min, l10hr, temp_l12min, l12hr), na.rm = TRUE)</t>
-  </si>
-  <si>
-    <t>case_when(
-rowSums(mutate(.,
-temp_l10min = l10min/60,
-temp_l12min = l12min/60) %&gt;%
-select(temp_l10min, l10hr, temp_l12min, l12hr), na.rm = TRUE) == 0 ~ 0L;
-rowSums(mutate(.,
-temp_l10min = l10min/60,
-temp_l12min = l12min/60) %&gt;%
-select(temp_l10min, l10hr, temp_l12min, l12hr), na.rm = TRUE) &lt; 1 ~ 1L;
-rowSums(mutate(.,
-temp_l10min = l10min/60,
-temp_l12min = l12min/60) %&gt;%
-select(temp_l10min, l10hr, temp_l12min, l12hr), na.rm = TRUE) &lt; 3 ~ 2L;
-rowSums(mutate(.,
-temp_l10min = l10min/60,
-temp_l12min = l12min/60) %&gt;%
-select(temp_l10min, l10hr, temp_l12min, l12hr), na.rm = TRUE) &lt; 5 ~ 3L;
-rowSums(mutate(.,
-temp_l10min = l10min/60,
-temp_l12min = l12min/60) %&gt;%
-select(temp_l10min, l10hr, temp_l12min, l12hr), na.rm = TRUE) &lt; 7 ~ 4L;
-rowSums(mutate(.,
-temp_l10min = l10min/60,
-temp_l12min = l12min/60) %&gt;%
-select(temp_l10min, l10hr, temp_l12min, l12hr), na.rm = TRUE) &gt;= 7 ~ 5L;
 ELSE ~ NA_integer_)</t>
   </si>
   <si>
@@ -1883,12 +1846,49 @@
 rowSums(mutate(., temp_l1min = l1min/60, temp_l2min = l2min/60) %&gt;% select(temp_l1min, temp_l2min, l1hr, l2hr), na.rm = TRUE) &gt; 3 ~ 3L;
 ELSE ~ NA_integer_)</t>
   </si>
+  <si>
+    <t>ifelse(!is.na(HBA1C),(HBA1C*10.93) - 23.5,NA)</t>
+  </si>
+  <si>
+    <t>rowSums(mutate(.,
+temp_l10min = ifelse(!is.na(l10min),l10min/60,NA),
+temp_l12min = ifelse(!is.na(l12min),l12min/60,NA)) %&gt;%
+select(temp_l10min, l10hr, temp_l12min, l12hr), na.rm = TRUE)</t>
+  </si>
+  <si>
+    <t>case_when(
+rowSums(mutate(.,
+temp_l10min = ifelse(!is.na(l10min),l10min/60,NA),
+temp_l12min = ifelse(!is.na(l12min),l12min/60,NA)) %&gt;%
+select(temp_l10min, l10hr, temp_l12min, l12hr), na.rm = TRUE) == 0 ~ 0L;
+rowSums(mutate(.,
+temp_l10min = ifelse(!is.na(l10min),l10min/60,NA),
+temp_l12min = ifelse(!is.na(l12min),l12min/60,NA)) %&gt;%
+select(temp_l10min, l10hr, temp_l12min, l12hr), na.rm = TRUE) &lt; 1 ~ 1L;
+rowSums(mutate(.,
+temp_l10min = ifelse(!is.na(l10min),l10min/60,NA),
+temp_l12min = ifelse(!is.na(l12min),l12min/60,NA)) %&gt;%
+select(temp_l10min, l10hr, temp_l12min, l12hr), na.rm = TRUE) &lt; 3 ~ 2L;
+rowSums(mutate(.,
+temp_l10min = ifelse(!is.na(l10min),l10min/60,NA),
+temp_l12min = ifelse(!is.na(l12min),l12min/60,NA)) %&gt;%
+select(temp_l10min, l10hr, temp_l12min, l12hr), na.rm = TRUE) &lt; 5 ~ 3L;
+rowSums(mutate(.,
+temp_l10min = ifelse(!is.na(l10min),l10min/60,NA),
+temp_l12min = ifelse(!is.na(l12min),l12min/60,NA)) %&gt;%
+select(temp_l10min, l10hr, temp_l12min, l12hr), na.rm = TRUE) &lt; 7 ~ 4L;
+rowSums(mutate(.,
+temp_l10min = ifelse(!is.na(l10min),l10min/60,NA),
+temp_l12min = ifelse(!is.na(l12min),l12min/60,NA)) %&gt;%
+select(temp_l10min, l10hr, temp_l12min, l12hr), na.rm = TRUE) &gt;= 7 ~ 5L;
+ELSE ~ NA_integer_)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1919,6 +1919,12 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1967,7 +1973,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2011,6 +2017,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2353,10 +2360,10 @@
   <dimension ref="A1:AD84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="S66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="S72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W70" sqref="W70"/>
+      <selection pane="bottomRight" activeCell="X77" sqref="X77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="54.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2412,19 +2419,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="M1" s="9" t="s">
         <v>11</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>12</v>
@@ -2448,25 +2455,25 @@
         <v>18</v>
       </c>
       <c r="X1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="Y1" t="s">
         <v>19</v>
       </c>
       <c r="Z1" t="s">
+        <v>489</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>490</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>491</v>
+      </c>
+      <c r="AC1" t="s">
         <v>492</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>493</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>494</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>495</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
@@ -2492,7 +2499,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="11"/>
       <c r="J2" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>296</v>
@@ -2515,7 +2522,7 @@
         <v>26</v>
       </c>
       <c r="W2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="75" x14ac:dyDescent="0.25">
@@ -2543,7 +2550,7 @@
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>313</v>
@@ -2568,10 +2575,10 @@
         <v>32</v>
       </c>
       <c r="W3" t="s">
+        <v>439</v>
+      </c>
+      <c r="X3" t="s">
         <v>442</v>
-      </c>
-      <c r="X3" t="s">
-        <v>445</v>
       </c>
       <c r="Y3" s="14" t="s">
         <v>314</v>
@@ -2614,7 +2621,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Q4" s="6" t="s">
         <v>317</v>
@@ -2670,7 +2677,7 @@
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>23</v>
@@ -2730,7 +2737,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>323</v>
@@ -2750,7 +2757,7 @@
         <v>324</v>
       </c>
       <c r="X6" s="14" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="Y6" t="s">
         <v>288</v>
@@ -2793,7 +2800,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="6"/>
       <c r="P7" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>327</v>
@@ -2815,7 +2822,7 @@
         <v>3</v>
       </c>
       <c r="X7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="Y7" t="s">
         <v>329</v>
@@ -2858,7 +2865,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Q8" s="6" t="s">
         <v>332</v>
@@ -2962,7 +2969,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Q10" s="6" t="s">
         <v>335</v>
@@ -2982,10 +2989,10 @@
         <v>61</v>
       </c>
       <c r="X10" s="14" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="Z10" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="180" x14ac:dyDescent="0.25">
@@ -3023,7 +3030,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Q11" s="6" t="s">
         <v>338</v>
@@ -3043,7 +3050,7 @@
         <v>339</v>
       </c>
       <c r="Z11" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="12" spans="1:30" ht="128.25" x14ac:dyDescent="0.25">
@@ -3083,7 +3090,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Q12" s="6" t="s">
         <v>332</v>
@@ -3103,7 +3110,7 @@
         <v>340</v>
       </c>
       <c r="Z12" s="14" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="85.5" x14ac:dyDescent="0.25">
@@ -3143,7 +3150,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Q13" s="6" t="s">
         <v>343</v>
@@ -3200,7 +3207,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Q14" s="6" t="s">
         <v>343</v>
@@ -3273,7 +3280,7 @@
         <v>2</v>
       </c>
       <c r="X15" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="Y15" t="s">
         <v>346</v>
@@ -3727,7 +3734,7 @@
         <v>61</v>
       </c>
       <c r="X23" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="Y23" t="s">
         <v>358</v>
@@ -3780,7 +3787,7 @@
         <v>61</v>
       </c>
       <c r="X24" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="Y24" t="s">
         <v>358</v>
@@ -4052,7 +4059,7 @@
         <v>426</v>
       </c>
       <c r="X29" s="14" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="Y29" t="s">
         <v>367</v>
@@ -4160,11 +4167,11 @@
       <c r="V31" t="s">
         <v>32</v>
       </c>
-      <c r="W31" t="s">
-        <v>427</v>
+      <c r="W31" s="17" t="s">
+        <v>495</v>
       </c>
       <c r="X31" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="Y31" t="s">
         <v>292</v>
@@ -4225,7 +4232,7 @@
         <v>45</v>
       </c>
       <c r="X32" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
@@ -4283,7 +4290,7 @@
         <v>45</v>
       </c>
       <c r="X33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
@@ -4341,7 +4348,7 @@
         <v>45</v>
       </c>
       <c r="X34" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
@@ -4380,7 +4387,7 @@
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
@@ -4400,7 +4407,7 @@
         <v>32</v>
       </c>
       <c r="W35" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
@@ -4455,10 +4462,10 @@
         <v>32</v>
       </c>
       <c r="W36" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="X36" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
@@ -4546,7 +4553,7 @@
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="P38" s="1" t="s">
         <v>44</v>
@@ -4569,7 +4576,7 @@
         <v>61</v>
       </c>
       <c r="X38" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="Y38" t="s">
         <v>302</v>
@@ -4660,7 +4667,7 @@
       </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="P40" s="1" t="s">
         <v>44</v>
@@ -4771,7 +4778,7 @@
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="P42" s="1" t="s">
         <v>44</v>
@@ -4794,7 +4801,7 @@
         <v>45</v>
       </c>
       <c r="X42" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="Y42" t="s">
         <v>377</v>
@@ -4852,10 +4859,10 @@
         <v>32</v>
       </c>
       <c r="W43" s="14" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="X43" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="Y43" s="14" t="s">
         <v>385</v>
@@ -4883,7 +4890,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>386</v>
@@ -4898,7 +4905,7 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="Q44" s="6" t="s">
         <v>389</v>
@@ -4999,7 +5006,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="15" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="J46" s="6" t="s">
         <v>391</v>
@@ -5138,7 +5145,7 @@
         <v>61</v>
       </c>
       <c r="X48" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="Y48" t="s">
         <v>402</v>
@@ -5192,7 +5199,7 @@
         <v>61</v>
       </c>
       <c r="X49" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="Y49" t="s">
         <v>198</v>
@@ -5281,7 +5288,7 @@
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
@@ -5399,7 +5406,7 @@
         <v>61</v>
       </c>
       <c r="X53" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="Y53" t="s">
         <v>403</v>
@@ -5490,13 +5497,13 @@
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="11" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="6" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
@@ -5510,7 +5517,7 @@
         <v>38</v>
       </c>
       <c r="W55" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="Y55" t="s">
         <v>198</v>
@@ -5546,13 +5553,13 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="11" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="6" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
@@ -5566,7 +5573,7 @@
         <v>38</v>
       </c>
       <c r="W56" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="Y56" t="s">
         <v>198</v>
@@ -5602,13 +5609,13 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="11" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="6" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
@@ -5622,7 +5629,7 @@
         <v>38</v>
       </c>
       <c r="W57" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="Y57" t="s">
         <v>198</v>
@@ -6104,7 +6111,7 @@
         <v>61</v>
       </c>
       <c r="X67" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="Y67" t="s">
         <v>198</v>
@@ -6159,7 +6166,7 @@
         <v>61</v>
       </c>
       <c r="X68" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="Y68" t="s">
         <v>198</v>
@@ -6214,7 +6221,7 @@
         <v>61</v>
       </c>
       <c r="X69" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="Y69" t="s">
         <v>198</v>
@@ -6266,10 +6273,10 @@
         <v>205</v>
       </c>
       <c r="W70" s="14" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="X70" s="14" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="Y70" t="s">
         <v>198</v>
@@ -6321,7 +6328,7 @@
         <v>205</v>
       </c>
       <c r="W71" s="14" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="Y71" t="s">
         <v>198</v>
@@ -6373,7 +6380,7 @@
         <v>205</v>
       </c>
       <c r="W72" s="14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="Y72" t="s">
         <v>198</v>
@@ -6572,7 +6579,7 @@
         <v>32</v>
       </c>
       <c r="W76" s="14" t="s">
-        <v>431</v>
+        <v>496</v>
       </c>
       <c r="Y76" t="s">
         <v>408</v>
@@ -6622,10 +6629,10 @@
         <v>205</v>
       </c>
       <c r="W77" s="14" t="s">
-        <v>432</v>
+        <v>497</v>
       </c>
       <c r="X77" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="Y77" t="s">
         <v>408</v>
@@ -6665,7 +6672,7 @@
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="R78" s="1"/>
       <c r="S78" s="6"/>
@@ -6679,7 +6686,7 @@
         <v>205</v>
       </c>
       <c r="W78" s="14" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="Y78" t="s">
         <v>198</v>
@@ -6765,7 +6772,7 @@
         <v>189</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
@@ -6776,7 +6783,7 @@
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
       <c r="S80" s="6" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="T80" s="7" t="s">
         <v>24</v>
@@ -6788,7 +6795,7 @@
         <v>205</v>
       </c>
       <c r="W80" s="14" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="Y80" t="s">
         <v>198</v>
@@ -6824,13 +6831,13 @@
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="15" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
       <c r="Q81" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="R81" s="1"/>
       <c r="S81" s="6"/>
@@ -6844,7 +6851,7 @@
         <v>205</v>
       </c>
       <c r="W81" s="14" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="82" spans="1:25" ht="409.5" x14ac:dyDescent="0.25">
@@ -6872,7 +6879,7 @@
         <v>189</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
@@ -6883,7 +6890,7 @@
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
       <c r="S82" s="6" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="T82" s="7" t="s">
         <v>24</v>
@@ -6895,7 +6902,7 @@
         <v>205</v>
       </c>
       <c r="W82" s="14" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="Y82" t="s">
         <v>198</v>

--- a/data_processing_elements-SHS.xlsx
+++ b/data_processing_elements-SHS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1E88D9-8DD6-43DF-9AAC-D0C2BA70E5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9E582A-F6EE-40D2-A862-DDA98A18F59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
@@ -1850,12 +1850,6 @@
     <t>ifelse(!is.na(HBA1C),(HBA1C*10.93) - 23.5,NA)</t>
   </si>
   <si>
-    <t>rowSums(mutate(.,
-temp_l10min = ifelse(!is.na(l10min),l10min/60,NA),
-temp_l12min = ifelse(!is.na(l12min),l12min/60,NA)) %&gt;%
-select(temp_l10min, l10hr, temp_l12min, l12hr), na.rm = TRUE)</t>
-  </si>
-  <si>
     <t>case_when(
 rowSums(mutate(.,
 temp_l10min = ifelse(!is.na(l10min),l10min/60,NA),
@@ -1882,6 +1876,12 @@
 temp_l12min = ifelse(!is.na(l12min),l12min/60,NA)) %&gt;%
 select(temp_l10min, l10hr, temp_l12min, l12hr), na.rm = TRUE) &gt;= 7 ~ 5L;
 ELSE ~ NA_integer_)</t>
+  </si>
+  <si>
+    <t>round(rowSums(mutate(.,
+temp_l10min = ifelse(!is.na(l10min),l10min/60,NA),
+temp_l12min = ifelse(!is.na(l12min),l12min/60,NA)) %&gt;%
+select(temp_l10min, l10hr, temp_l12min, l12hr), na.rm = TRUE))</t>
   </si>
 </sst>
 </file>
@@ -2360,10 +2360,10 @@
   <dimension ref="A1:AD84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="S72" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="S73" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X77" sqref="X77"/>
+      <selection pane="bottomRight" activeCell="W77" sqref="W77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="54.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2382,6 +2382,7 @@
     <col min="13" max="13" width="60.7109375" style="13" customWidth="1"/>
     <col min="14" max="14" width="21.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="15" max="21" width="54.85546875" style="12"/>
+    <col min="23" max="23" width="74" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
@@ -6533,7 +6534,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="76" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -6579,13 +6580,13 @@
         <v>32</v>
       </c>
       <c r="W76" s="14" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Y76" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="77" spans="1:25" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" ht="390" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -6629,7 +6630,7 @@
         <v>205</v>
       </c>
       <c r="W77" s="14" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="X77" t="s">
         <v>480</v>

--- a/data_processing_elements-SHS.xlsx
+++ b/data_processing_elements-SHS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9E582A-F6EE-40D2-A862-DDA98A18F59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38B06AB-1D90-4985-92B5-232B53A04D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
@@ -1460,15 +1460,6 @@
   </si>
   <si>
     <t>round(rowMeans(select(., reading1_waist, reading2_waist, reading3_waist), na.rm=TRUE), 2)</t>
-  </si>
-  <si>
-    <t>round(rowMeans(select(., bp1systolic1, bp1systolic2, bp1systolic3), na.rm=TRUE), 2)</t>
-  </si>
-  <si>
-    <t>round(rowMeans(select(., bp1diastolic1, bp1diastolic2, bp1diastolic3), na.rm=TRUE), 2)</t>
-  </si>
-  <si>
-    <t>round(rowMeans(select(., bp1hr1, bp1hr2, bp1hr3), na.rm=TRUE), 2)</t>
   </si>
   <si>
     <t>case_when(
@@ -1731,13 +1722,6 @@
     <t>not in report, only edited data dict. Must confirm</t>
   </si>
   <si>
-    <t>rowSums(mutate(.,
-temp_b3 = b3*(300*0.05*0.7893),
-temp_b4 = b4*(175*0.12*0.7893),
-temp_b5 = b5*(35*0.4*0.7893)) %&gt;%
-select(temp_b3, temp_b4, temp_b5), na.rm = TRUE)</t>
-  </si>
-  <si>
     <t>confirm conversion</t>
   </si>
   <si>
@@ -1882,6 +1866,26 @@
 temp_l10min = ifelse(!is.na(l10min),l10min/60,NA),
 temp_l12min = ifelse(!is.na(l12min),l12min/60,NA)) %&gt;%
 select(temp_l10min, l10hr, temp_l12min, l12hr), na.rm = TRUE))</t>
+  </si>
+  <si>
+    <t>case_when(bp1diastolic3 == 0 ~ round(rowMeans(select(., bp1diastolic1, bp1diastolic2), na.rm=TRUE), 2);
+ELSE ~  round(rowMeans(select(., bp1diastolic1, bp1diastolic2, bp1diastolic3), na.rm=TRUE), 2))</t>
+  </si>
+  <si>
+    <t>case_when(bp1systolic3 == 0 ~ round(rowMeans(select(., bp1systolic1, bp1systolic2), na.rm=TRUE), 2);
+ELSE ~ round(rowMeans(select(., bp1systolic1, bp1systolic2, bp1systolic3), na.rm=TRUE), 2))</t>
+  </si>
+  <si>
+    <t>case_when(bp1hr3 == 0 ~ round(rowMeans(select(., bp1hr1, bp1hr2), na.rm=TRUE), 2);
+ELSE ~ round(rowMeans(select(., bp1hr1, bp1hr2, bp1hr3), na.rm=TRUE), 2))</t>
+  </si>
+  <si>
+    <t>case_when(is.na(b3) &amp; is.na(b4) &amp; is.na(b5) ~ NA;
+ELSE ~ rowSums(mutate(.,
+temp_b3 = b3*(300*0.05*0.7893),
+temp_b4 = b4*(175*0.12*0.7893),
+temp_b5 = b5*(35*0.4*0.7893)) %&gt;%
+select(temp_b3, temp_b4, temp_b5), na.rm = TRUE))</t>
   </si>
 </sst>
 </file>
@@ -2360,10 +2364,10 @@
   <dimension ref="A1:AD84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="S73" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="S29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W77" sqref="W77"/>
+      <selection pane="bottomRight" activeCell="W41" sqref="W41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="54.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2420,19 +2424,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="M1" s="9" t="s">
         <v>11</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>12</v>
@@ -2456,25 +2460,25 @@
         <v>18</v>
       </c>
       <c r="X1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Y1" t="s">
         <v>19</v>
       </c>
       <c r="Z1" t="s">
+        <v>485</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>486</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>487</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>488</v>
+      </c>
+      <c r="AD1" t="s">
         <v>489</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>490</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>491</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>492</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
@@ -2500,7 +2504,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="11"/>
       <c r="J2" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>296</v>
@@ -2523,7 +2527,7 @@
         <v>26</v>
       </c>
       <c r="W2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="75" x14ac:dyDescent="0.25">
@@ -2551,7 +2555,7 @@
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>313</v>
@@ -2576,10 +2580,10 @@
         <v>32</v>
       </c>
       <c r="W3" t="s">
+        <v>436</v>
+      </c>
+      <c r="X3" t="s">
         <v>439</v>
-      </c>
-      <c r="X3" t="s">
-        <v>442</v>
       </c>
       <c r="Y3" s="14" t="s">
         <v>314</v>
@@ -2622,7 +2626,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="Q4" s="6" t="s">
         <v>317</v>
@@ -2678,7 +2682,7 @@
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>23</v>
@@ -2738,7 +2742,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>323</v>
@@ -2758,7 +2762,7 @@
         <v>324</v>
       </c>
       <c r="X6" s="14" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="Y6" t="s">
         <v>288</v>
@@ -2801,7 +2805,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="6"/>
       <c r="P7" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>327</v>
@@ -2823,7 +2827,7 @@
         <v>3</v>
       </c>
       <c r="X7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Y7" t="s">
         <v>329</v>
@@ -2866,7 +2870,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="Q8" s="6" t="s">
         <v>332</v>
@@ -2970,7 +2974,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="Q10" s="6" t="s">
         <v>335</v>
@@ -2990,10 +2994,10 @@
         <v>61</v>
       </c>
       <c r="X10" s="14" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="Z10" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="180" x14ac:dyDescent="0.25">
@@ -3031,7 +3035,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="Q11" s="6" t="s">
         <v>338</v>
@@ -3051,7 +3055,7 @@
         <v>339</v>
       </c>
       <c r="Z11" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12" spans="1:30" ht="128.25" x14ac:dyDescent="0.25">
@@ -3091,7 +3095,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="Q12" s="6" t="s">
         <v>332</v>
@@ -3111,7 +3115,7 @@
         <v>340</v>
       </c>
       <c r="Z12" s="14" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="85.5" x14ac:dyDescent="0.25">
@@ -3151,7 +3155,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="Q13" s="6" t="s">
         <v>343</v>
@@ -3208,7 +3212,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="Q14" s="6" t="s">
         <v>343</v>
@@ -3281,7 +3285,7 @@
         <v>2</v>
       </c>
       <c r="X15" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="Y15" t="s">
         <v>346</v>
@@ -3735,7 +3739,7 @@
         <v>61</v>
       </c>
       <c r="X23" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="Y23" t="s">
         <v>358</v>
@@ -3788,13 +3792,13 @@
         <v>61</v>
       </c>
       <c r="X24" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="Y24" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3842,13 +3846,13 @@
         <v>50</v>
       </c>
       <c r="V25" t="s">
-        <v>32</v>
-      </c>
-      <c r="W25" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="W25" s="14" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3896,13 +3900,13 @@
         <v>50</v>
       </c>
       <c r="V26" t="s">
-        <v>32</v>
-      </c>
-      <c r="W26" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="W26" s="14" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3954,8 +3958,8 @@
       <c r="V27" t="s">
         <v>32</v>
       </c>
-      <c r="W27" t="s">
-        <v>425</v>
+      <c r="W27" s="14" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
@@ -4057,10 +4061,10 @@
         <v>205</v>
       </c>
       <c r="W29" s="14" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="X29" s="14" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="Y29" t="s">
         <v>367</v>
@@ -4169,10 +4173,10 @@
         <v>32</v>
       </c>
       <c r="W31" s="17" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="X31" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="Y31" t="s">
         <v>292</v>
@@ -4233,7 +4237,7 @@
         <v>45</v>
       </c>
       <c r="X32" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
@@ -4291,7 +4295,7 @@
         <v>45</v>
       </c>
       <c r="X33" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
@@ -4349,7 +4353,7 @@
         <v>45</v>
       </c>
       <c r="X34" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
@@ -4388,7 +4392,7 @@
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
@@ -4408,7 +4412,7 @@
         <v>32</v>
       </c>
       <c r="W35" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
@@ -4463,10 +4467,10 @@
         <v>32</v>
       </c>
       <c r="W36" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="X36" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
@@ -4554,7 +4558,7 @@
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="P38" s="1" t="s">
         <v>44</v>
@@ -4577,7 +4581,7 @@
         <v>61</v>
       </c>
       <c r="X38" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="Y38" t="s">
         <v>302</v>
@@ -4668,7 +4672,7 @@
       </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="P40" s="1" t="s">
         <v>44</v>
@@ -4779,7 +4783,7 @@
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="P42" s="1" t="s">
         <v>44</v>
@@ -4802,7 +4806,7 @@
         <v>45</v>
       </c>
       <c r="X42" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="Y42" t="s">
         <v>377</v>
@@ -4857,13 +4861,13 @@
         <v>50</v>
       </c>
       <c r="V43" t="s">
-        <v>32</v>
+        <v>205</v>
       </c>
       <c r="W43" s="14" t="s">
-        <v>463</v>
+        <v>497</v>
       </c>
       <c r="X43" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="Y43" s="14" t="s">
         <v>385</v>
@@ -4891,7 +4895,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="15" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>386</v>
@@ -4906,7 +4910,7 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="Q44" s="6" t="s">
         <v>389</v>
@@ -5007,7 +5011,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="15" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="J46" s="6" t="s">
         <v>391</v>
@@ -5146,7 +5150,7 @@
         <v>61</v>
       </c>
       <c r="X48" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="Y48" t="s">
         <v>402</v>
@@ -5200,7 +5204,7 @@
         <v>61</v>
       </c>
       <c r="X49" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="Y49" t="s">
         <v>198</v>
@@ -5289,7 +5293,7 @@
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
@@ -5407,7 +5411,7 @@
         <v>61</v>
       </c>
       <c r="X53" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="Y53" t="s">
         <v>403</v>
@@ -5498,13 +5502,13 @@
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="11" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="6" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
@@ -5518,7 +5522,7 @@
         <v>38</v>
       </c>
       <c r="W55" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="Y55" t="s">
         <v>198</v>
@@ -5554,13 +5558,13 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="11" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="6" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
@@ -5574,7 +5578,7 @@
         <v>38</v>
       </c>
       <c r="W56" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="Y56" t="s">
         <v>198</v>
@@ -5610,13 +5614,13 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="11" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="6" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
@@ -5630,7 +5634,7 @@
         <v>38</v>
       </c>
       <c r="W57" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="Y57" t="s">
         <v>198</v>
@@ -6112,7 +6116,7 @@
         <v>61</v>
       </c>
       <c r="X67" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="Y67" t="s">
         <v>198</v>
@@ -6167,7 +6171,7 @@
         <v>61</v>
       </c>
       <c r="X68" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="Y68" t="s">
         <v>198</v>
@@ -6222,7 +6226,7 @@
         <v>61</v>
       </c>
       <c r="X69" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="Y69" t="s">
         <v>198</v>
@@ -6274,10 +6278,10 @@
         <v>205</v>
       </c>
       <c r="W70" s="14" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="X70" s="14" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="Y70" t="s">
         <v>198</v>
@@ -6329,7 +6333,7 @@
         <v>205</v>
       </c>
       <c r="W71" s="14" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="Y71" t="s">
         <v>198</v>
@@ -6381,7 +6385,7 @@
         <v>205</v>
       </c>
       <c r="W72" s="14" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="Y72" t="s">
         <v>198</v>
@@ -6580,7 +6584,7 @@
         <v>32</v>
       </c>
       <c r="W76" s="14" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="Y76" t="s">
         <v>408</v>
@@ -6630,10 +6634,10 @@
         <v>205</v>
       </c>
       <c r="W77" s="14" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="X77" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="Y77" t="s">
         <v>408</v>
@@ -6673,7 +6677,7 @@
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="R78" s="1"/>
       <c r="S78" s="6"/>
@@ -6687,7 +6691,7 @@
         <v>205</v>
       </c>
       <c r="W78" s="14" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="Y78" t="s">
         <v>198</v>
@@ -6773,7 +6777,7 @@
         <v>189</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
@@ -6784,7 +6788,7 @@
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
       <c r="S80" s="6" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="T80" s="7" t="s">
         <v>24</v>
@@ -6796,7 +6800,7 @@
         <v>205</v>
       </c>
       <c r="W80" s="14" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="Y80" t="s">
         <v>198</v>
@@ -6832,13 +6836,13 @@
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="15" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
       <c r="Q81" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="R81" s="1"/>
       <c r="S81" s="6"/>
@@ -6852,7 +6856,7 @@
         <v>205</v>
       </c>
       <c r="W81" s="14" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="82" spans="1:25" ht="409.5" x14ac:dyDescent="0.25">
@@ -6880,7 +6884,7 @@
         <v>189</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
@@ -6891,7 +6895,7 @@
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
       <c r="S82" s="6" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="T82" s="7" t="s">
         <v>24</v>
@@ -6903,7 +6907,7 @@
         <v>205</v>
       </c>
       <c r="W82" s="14" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Y82" t="s">
         <v>198</v>

--- a/data_processing_elements-SHS.xlsx
+++ b/data_processing_elements-SHS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38B06AB-1D90-4985-92B5-232B53A04D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D689B4-423B-4235-AFB1-6093CBF8421C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
@@ -1242,9 +1242,6 @@
   </si>
   <si>
     <t>Diastolic blood pressure - 1st measurement; Diastolic blood pressure - 2nd measurement; Diastolic blood pressure - 3rd measurement</t>
-  </si>
-  <si>
-    <t>bp1hr1; bp1hr2; bp1hr3</t>
   </si>
   <si>
     <t>Pulse rate</t>
@@ -1886,6 +1883,11 @@
 temp_b4 = b4*(175*0.12*0.7893),
 temp_b5 = b5*(35*0.4*0.7893)) %&gt;%
 select(temp_b3, temp_b4, temp_b5), na.rm = TRUE))</t>
+  </si>
+  <si>
+    <t>bp1hr1;
+bp1hr2; 
+bp1hr3</t>
   </si>
 </sst>
 </file>
@@ -2364,10 +2366,10 @@
   <dimension ref="A1:AD84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="S29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="Q14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W41" sqref="W41"/>
+      <selection pane="bottomRight" activeCell="U32" sqref="U32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="54.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2424,19 +2426,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="M1" s="9" t="s">
         <v>11</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>482</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>483</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>12</v>
@@ -2460,25 +2462,25 @@
         <v>18</v>
       </c>
       <c r="X1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="Y1" t="s">
         <v>19</v>
       </c>
       <c r="Z1" t="s">
+        <v>484</v>
+      </c>
+      <c r="AA1" t="s">
         <v>485</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>486</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>487</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>488</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
@@ -2504,7 +2506,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="11"/>
       <c r="J2" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>296</v>
@@ -2527,7 +2529,7 @@
         <v>26</v>
       </c>
       <c r="W2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="75" x14ac:dyDescent="0.25">
@@ -2555,7 +2557,7 @@
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>313</v>
@@ -2580,10 +2582,10 @@
         <v>32</v>
       </c>
       <c r="W3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="X3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Y3" s="14" t="s">
         <v>314</v>
@@ -2626,7 +2628,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="Q4" s="6" t="s">
         <v>317</v>
@@ -2682,7 +2684,7 @@
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>23</v>
@@ -2742,7 +2744,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>323</v>
@@ -2762,7 +2764,7 @@
         <v>324</v>
       </c>
       <c r="X6" s="14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Y6" t="s">
         <v>288</v>
@@ -2805,7 +2807,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="6"/>
       <c r="P7" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>327</v>
@@ -2827,7 +2829,7 @@
         <v>3</v>
       </c>
       <c r="X7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="Y7" t="s">
         <v>329</v>
@@ -2870,7 +2872,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="Q8" s="6" t="s">
         <v>332</v>
@@ -2974,7 +2976,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="Q10" s="6" t="s">
         <v>335</v>
@@ -2994,10 +2996,10 @@
         <v>61</v>
       </c>
       <c r="X10" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="Z10" t="s">
         <v>444</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="180" x14ac:dyDescent="0.25">
@@ -3035,7 +3037,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="Q11" s="6" t="s">
         <v>338</v>
@@ -3055,7 +3057,7 @@
         <v>339</v>
       </c>
       <c r="Z11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:30" ht="128.25" x14ac:dyDescent="0.25">
@@ -3095,7 +3097,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="Q12" s="6" t="s">
         <v>332</v>
@@ -3115,7 +3117,7 @@
         <v>340</v>
       </c>
       <c r="Z12" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="85.5" x14ac:dyDescent="0.25">
@@ -3155,7 +3157,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="Q13" s="6" t="s">
         <v>343</v>
@@ -3212,7 +3214,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="Q14" s="6" t="s">
         <v>343</v>
@@ -3285,7 +3287,7 @@
         <v>2</v>
       </c>
       <c r="X15" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Y15" t="s">
         <v>346</v>
@@ -3601,7 +3603,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="11"/>
       <c r="J21" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>354</v>
@@ -3632,7 +3634,7 @@
         <v>32</v>
       </c>
       <c r="W21" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="Y21" t="s">
         <v>356</v>
@@ -3663,7 +3665,7 @@
         <v>94</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -3739,7 +3741,7 @@
         <v>61</v>
       </c>
       <c r="X23" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="Y23" t="s">
         <v>358</v>
@@ -3792,7 +3794,7 @@
         <v>61</v>
       </c>
       <c r="X24" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Y24" t="s">
         <v>358</v>
@@ -3849,7 +3851,7 @@
         <v>205</v>
       </c>
       <c r="W25" s="14" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="60" x14ac:dyDescent="0.25">
@@ -3903,7 +3905,7 @@
         <v>205</v>
       </c>
       <c r="W26" s="14" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="27" spans="1:25" ht="45" x14ac:dyDescent="0.25">
@@ -3930,11 +3932,11 @@
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="11"/>
-      <c r="J27" s="1" t="s">
+      <c r="J27" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>364</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="11" t="s">
@@ -3956,10 +3958,10 @@
         <v>50</v>
       </c>
       <c r="V27" t="s">
-        <v>32</v>
+        <v>205</v>
       </c>
       <c r="W27" s="14" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
@@ -4036,10 +4038,10 @@
         <v>129</v>
       </c>
       <c r="J29" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="K29" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>366</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="11"/>
@@ -4061,13 +4063,13 @@
         <v>205</v>
       </c>
       <c r="W29" s="14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="X29" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Y29" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
@@ -4144,7 +4146,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="11"/>
       <c r="J31" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>307</v>
@@ -4173,10 +4175,10 @@
         <v>32</v>
       </c>
       <c r="W31" s="17" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="X31" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y31" t="s">
         <v>292</v>
@@ -4237,7 +4239,7 @@
         <v>45</v>
       </c>
       <c r="X32" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
@@ -4295,7 +4297,7 @@
         <v>45</v>
       </c>
       <c r="X33" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
@@ -4353,7 +4355,7 @@
         <v>45</v>
       </c>
       <c r="X34" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
@@ -4381,18 +4383,18 @@
       <c r="H35" s="1"/>
       <c r="I35" s="11"/>
       <c r="J35" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
@@ -4412,7 +4414,7 @@
         <v>32</v>
       </c>
       <c r="W35" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
@@ -4440,7 +4442,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="11"/>
       <c r="J36" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>146</v>
@@ -4467,10 +4469,10 @@
         <v>32</v>
       </c>
       <c r="W36" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="X36" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
@@ -4547,18 +4549,18 @@
       <c r="H38" s="1"/>
       <c r="I38" s="11"/>
       <c r="J38" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="K38" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="P38" s="1" t="s">
         <v>44</v>
@@ -4581,7 +4583,7 @@
         <v>61</v>
       </c>
       <c r="X38" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="Y38" t="s">
         <v>302</v>
@@ -4661,18 +4663,18 @@
       <c r="H40" s="1"/>
       <c r="I40" s="11"/>
       <c r="J40" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="P40" s="1" t="s">
         <v>44</v>
@@ -4695,7 +4697,7 @@
         <v>45</v>
       </c>
       <c r="Y40" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="41" spans="1:25" ht="38.25" x14ac:dyDescent="0.25">
@@ -4772,18 +4774,18 @@
       <c r="H42" s="1"/>
       <c r="I42" s="11"/>
       <c r="J42" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="K42" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>379</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="P42" s="1" t="s">
         <v>44</v>
@@ -4806,10 +4808,10 @@
         <v>45</v>
       </c>
       <c r="X42" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="Y42" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="43" spans="1:25" ht="90" x14ac:dyDescent="0.25">
@@ -4837,14 +4839,14 @@
       <c r="H43" s="1"/>
       <c r="I43" s="11"/>
       <c r="J43" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="K43" s="6" t="s">
         <v>381</v>
-      </c>
-      <c r="K43" s="6" t="s">
-        <v>382</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
@@ -4852,7 +4854,7 @@
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
       <c r="S43" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="T43" s="7" t="s">
         <v>24</v>
@@ -4864,13 +4866,13 @@
         <v>205</v>
       </c>
       <c r="W43" s="14" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="X43" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="Y43" s="14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="44" spans="1:25" ht="142.5" x14ac:dyDescent="0.25">
@@ -4895,25 +4897,25 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="15" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J44" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="K44" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>387</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q44" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R44" s="1"/>
       <c r="S44" s="1" t="s">
@@ -4929,7 +4931,7 @@
         <v>38</v>
       </c>
       <c r="W44" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="45" spans="1:25" ht="75" x14ac:dyDescent="0.25">
@@ -4957,24 +4959,24 @@
         <v>177</v>
       </c>
       <c r="J45" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="K45" s="6" t="s">
         <v>391</v>
-      </c>
-      <c r="K45" s="6" t="s">
-        <v>392</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="R45" s="1"/>
       <c r="S45" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="T45" s="1" t="s">
         <v>24</v>
@@ -4986,7 +4988,7 @@
         <v>205</v>
       </c>
       <c r="W45" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="46" spans="1:25" ht="71.25" x14ac:dyDescent="0.25">
@@ -5011,23 +5013,23 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J46" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="K46" s="6" t="s">
         <v>391</v>
-      </c>
-      <c r="K46" s="6" t="s">
-        <v>392</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
@@ -5069,14 +5071,14 @@
       <c r="H47" s="1"/>
       <c r="I47" s="11"/>
       <c r="J47" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="K47" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>398</v>
       </c>
       <c r="L47" s="1"/>
       <c r="M47" s="11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
@@ -5085,7 +5087,7 @@
         <v>44</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="S47" s="1"/>
       <c r="T47" s="1" t="s">
@@ -5098,7 +5100,7 @@
         <v>32</v>
       </c>
       <c r="W47" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="48" spans="1:25" ht="51" x14ac:dyDescent="0.25">
@@ -5150,10 +5152,10 @@
         <v>61</v>
       </c>
       <c r="X48" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Y48" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="49" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
@@ -5204,7 +5206,7 @@
         <v>61</v>
       </c>
       <c r="X49" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Y49" t="s">
         <v>198</v>
@@ -5284,7 +5286,7 @@
         <v>189</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -5293,7 +5295,7 @@
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
@@ -5411,10 +5413,10 @@
         <v>61</v>
       </c>
       <c r="X53" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Y53" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="54" spans="1:25" ht="28.5" x14ac:dyDescent="0.25">
@@ -5442,20 +5444,20 @@
         <v>189</v>
       </c>
       <c r="J54" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K54" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>405</v>
       </c>
       <c r="L54" s="1"/>
       <c r="M54" s="11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
@@ -5497,18 +5499,18 @@
         <v>189</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
@@ -5522,7 +5524,7 @@
         <v>38</v>
       </c>
       <c r="W55" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="Y55" t="s">
         <v>198</v>
@@ -5553,18 +5555,18 @@
         <v>189</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
@@ -5578,7 +5580,7 @@
         <v>38</v>
       </c>
       <c r="W56" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="Y56" t="s">
         <v>198</v>
@@ -5609,18 +5611,18 @@
         <v>189</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
@@ -5634,7 +5636,7 @@
         <v>38</v>
       </c>
       <c r="W57" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="Y57" t="s">
         <v>198</v>
@@ -6116,7 +6118,7 @@
         <v>61</v>
       </c>
       <c r="X67" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="Y67" t="s">
         <v>198</v>
@@ -6171,7 +6173,7 @@
         <v>61</v>
       </c>
       <c r="X68" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Y68" t="s">
         <v>198</v>
@@ -6226,13 +6228,13 @@
         <v>61</v>
       </c>
       <c r="X69" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Y69" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="70" spans="1:25" ht="195" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" ht="150" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -6257,7 +6259,7 @@
         <v>241</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
@@ -6278,16 +6280,16 @@
         <v>205</v>
       </c>
       <c r="W70" s="14" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="X70" s="14" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="Y70" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="71" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" ht="135" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -6312,7 +6314,7 @@
         <v>241</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
@@ -6333,13 +6335,13 @@
         <v>205</v>
       </c>
       <c r="W71" s="14" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="Y71" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="72" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" ht="135" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -6364,7 +6366,7 @@
         <v>241</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
@@ -6385,7 +6387,7 @@
         <v>205</v>
       </c>
       <c r="W72" s="14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Y72" t="s">
         <v>198</v>
@@ -6563,7 +6565,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="11"/>
       <c r="J76" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
@@ -6584,10 +6586,10 @@
         <v>32</v>
       </c>
       <c r="W76" s="14" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="Y76" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="77" spans="1:25" ht="390" x14ac:dyDescent="0.25">
@@ -6613,7 +6615,7 @@
         <v>264</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
@@ -6634,13 +6636,13 @@
         <v>205</v>
       </c>
       <c r="W77" s="14" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="X77" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Y77" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="78" spans="1:25" ht="75" x14ac:dyDescent="0.25">
@@ -6668,7 +6670,7 @@
         <v>268</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
@@ -6677,7 +6679,7 @@
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="R78" s="1"/>
       <c r="S78" s="6"/>
@@ -6691,7 +6693,7 @@
         <v>205</v>
       </c>
       <c r="W78" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Y78" t="s">
         <v>198</v>
@@ -6749,7 +6751,7 @@
         <v>61</v>
       </c>
       <c r="Y79" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="80" spans="1:25" ht="409.5" x14ac:dyDescent="0.25">
@@ -6777,7 +6779,7 @@
         <v>189</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
@@ -6788,7 +6790,7 @@
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
       <c r="S80" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="T80" s="7" t="s">
         <v>24</v>
@@ -6800,7 +6802,7 @@
         <v>205</v>
       </c>
       <c r="W80" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Y80" t="s">
         <v>198</v>
@@ -6831,18 +6833,18 @@
         <v>189</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
       <c r="Q81" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="R81" s="1"/>
       <c r="S81" s="6"/>
@@ -6856,7 +6858,7 @@
         <v>205</v>
       </c>
       <c r="W81" s="14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="82" spans="1:25" ht="409.5" x14ac:dyDescent="0.25">
@@ -6884,7 +6886,7 @@
         <v>189</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
@@ -6895,7 +6897,7 @@
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
       <c r="S82" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="T82" s="7" t="s">
         <v>24</v>
@@ -6907,7 +6909,7 @@
         <v>205</v>
       </c>
       <c r="W82" s="14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="Y82" t="s">
         <v>198</v>

--- a/data_processing_elements-SHS.xlsx
+++ b/data_processing_elements-SHS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D689B4-423B-4235-AFB1-6093CBF8421C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100ECC84-4E17-4B36-964F-3F4494B42AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
@@ -1379,9 +1379,6 @@
   </si>
   <si>
     <t>number of cigarettes per day</t>
-  </si>
-  <si>
-    <t>c7*7</t>
   </si>
   <si>
     <t>Is this variable available, if so, please provide us the information</t>
@@ -1865,16 +1862,8 @@
 select(temp_l10min, l10hr, temp_l12min, l12hr), na.rm = TRUE))</t>
   </si>
   <si>
-    <t>case_when(bp1diastolic3 == 0 ~ round(rowMeans(select(., bp1diastolic1, bp1diastolic2), na.rm=TRUE), 2);
-ELSE ~  round(rowMeans(select(., bp1diastolic1, bp1diastolic2, bp1diastolic3), na.rm=TRUE), 2))</t>
-  </si>
-  <si>
     <t>case_when(bp1systolic3 == 0 ~ round(rowMeans(select(., bp1systolic1, bp1systolic2), na.rm=TRUE), 2);
 ELSE ~ round(rowMeans(select(., bp1systolic1, bp1systolic2, bp1systolic3), na.rm=TRUE), 2))</t>
-  </si>
-  <si>
-    <t>case_when(bp1hr3 == 0 ~ round(rowMeans(select(., bp1hr1, bp1hr2), na.rm=TRUE), 2);
-ELSE ~ round(rowMeans(select(., bp1hr1, bp1hr2, bp1hr3), na.rm=TRUE), 2))</t>
   </si>
   <si>
     <t>case_when(is.na(b3) &amp; is.na(b4) &amp; is.na(b5) ~ NA;
@@ -1885,9 +1874,20 @@
 select(temp_b3, temp_b4, temp_b5), na.rm = TRUE))</t>
   </si>
   <si>
-    <t>bp1hr1;
-bp1hr2; 
-bp1hr3</t>
+    <t>case_when(bp1diastolic3 == 0 ~ round(rowMeans(select(., bp1diastolic1, bp1diastolic2), na.rm=TRUE), 2);
+ELSE ~ round(rowMeans(select(., bp1diastolic1, bp1diastolic2, bp1diastolic3), na.rm=TRUE), 2))</t>
+  </si>
+  <si>
+    <t>bp1hr1; bp1hr2; bp1hr3</t>
+  </si>
+  <si>
+    <t>case_when(bp1hr1 == 0 &amp; bp1hr2 == 0 &amp; bp1hr3 == 0 ~ NA; 
+bp1hr3 == 0 ~ round(rowMeans(select(., bp1hr1, bp1hr2), na.rm=TRUE), 2);
+ELSE ~ round(rowMeans(select(., bp1hr1, bp1hr2, bp1hr3), na.rm=TRUE), 2))</t>
+  </si>
+  <si>
+    <t>case_when(c7 == 999 ~ NA_integer_;
+ELSE ~ c7*7)</t>
   </si>
 </sst>
 </file>
@@ -2366,10 +2366,10 @@
   <dimension ref="A1:AD84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Q14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="S17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U32" sqref="U32"/>
+      <selection pane="bottomRight" activeCell="W46" sqref="W46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="54.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2426,19 +2426,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M1" s="9" t="s">
         <v>11</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>481</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>482</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>12</v>
@@ -2462,25 +2462,25 @@
         <v>18</v>
       </c>
       <c r="X1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="Y1" t="s">
         <v>19</v>
       </c>
       <c r="Z1" t="s">
+        <v>483</v>
+      </c>
+      <c r="AA1" t="s">
         <v>484</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>485</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>486</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>487</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
@@ -2506,7 +2506,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="11"/>
       <c r="J2" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>296</v>
@@ -2529,7 +2529,7 @@
         <v>26</v>
       </c>
       <c r="W2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="75" x14ac:dyDescent="0.25">
@@ -2557,7 +2557,7 @@
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>313</v>
@@ -2582,10 +2582,10 @@
         <v>32</v>
       </c>
       <c r="W3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="X3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Y3" s="14" t="s">
         <v>314</v>
@@ -2628,7 +2628,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Q4" s="6" t="s">
         <v>317</v>
@@ -2684,7 +2684,7 @@
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>23</v>
@@ -2744,7 +2744,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>323</v>
@@ -2764,7 +2764,7 @@
         <v>324</v>
       </c>
       <c r="X6" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="Y6" t="s">
         <v>288</v>
@@ -2807,7 +2807,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="6"/>
       <c r="P7" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>327</v>
@@ -2829,7 +2829,7 @@
         <v>3</v>
       </c>
       <c r="X7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Y7" t="s">
         <v>329</v>
@@ -2872,7 +2872,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Q8" s="6" t="s">
         <v>332</v>
@@ -2976,7 +2976,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Q10" s="6" t="s">
         <v>335</v>
@@ -2996,10 +2996,10 @@
         <v>61</v>
       </c>
       <c r="X10" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="Z10" t="s">
         <v>443</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="180" x14ac:dyDescent="0.25">
@@ -3037,7 +3037,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Q11" s="6" t="s">
         <v>338</v>
@@ -3057,7 +3057,7 @@
         <v>339</v>
       </c>
       <c r="Z11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="12" spans="1:30" ht="128.25" x14ac:dyDescent="0.25">
@@ -3097,7 +3097,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Q12" s="6" t="s">
         <v>332</v>
@@ -3117,7 +3117,7 @@
         <v>340</v>
       </c>
       <c r="Z12" s="14" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="85.5" x14ac:dyDescent="0.25">
@@ -3157,7 +3157,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Q13" s="6" t="s">
         <v>343</v>
@@ -3214,7 +3214,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Q14" s="6" t="s">
         <v>343</v>
@@ -3287,7 +3287,7 @@
         <v>2</v>
       </c>
       <c r="X15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="Y15" t="s">
         <v>346</v>
@@ -3603,7 +3603,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="11"/>
       <c r="J21" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>354</v>
@@ -3634,7 +3634,7 @@
         <v>32</v>
       </c>
       <c r="W21" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="Y21" t="s">
         <v>356</v>
@@ -3665,7 +3665,7 @@
         <v>94</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -3741,7 +3741,7 @@
         <v>61</v>
       </c>
       <c r="X23" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Y23" t="s">
         <v>358</v>
@@ -3794,7 +3794,7 @@
         <v>61</v>
       </c>
       <c r="X24" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="Y24" t="s">
         <v>358</v>
@@ -3851,7 +3851,7 @@
         <v>205</v>
       </c>
       <c r="W25" s="14" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="60" x14ac:dyDescent="0.25">
@@ -3905,7 +3905,7 @@
         <v>205</v>
       </c>
       <c r="W26" s="14" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="27" spans="1:25" ht="45" x14ac:dyDescent="0.25">
@@ -3933,7 +3933,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="11"/>
       <c r="J27" s="6" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>363</v>
@@ -3958,10 +3958,10 @@
         <v>50</v>
       </c>
       <c r="V27" t="s">
-        <v>205</v>
+        <v>32</v>
       </c>
       <c r="W27" s="14" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
@@ -4063,10 +4063,10 @@
         <v>205</v>
       </c>
       <c r="W29" s="14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="X29" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Y29" t="s">
         <v>366</v>
@@ -4175,10 +4175,10 @@
         <v>32</v>
       </c>
       <c r="W31" s="17" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="X31" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Y31" t="s">
         <v>292</v>
@@ -4239,7 +4239,7 @@
         <v>45</v>
       </c>
       <c r="X32" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
@@ -4297,7 +4297,7 @@
         <v>45</v>
       </c>
       <c r="X33" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
@@ -4355,7 +4355,7 @@
         <v>45</v>
       </c>
       <c r="X34" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
@@ -4394,7 +4394,7 @@
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
@@ -4414,7 +4414,7 @@
         <v>32</v>
       </c>
       <c r="W35" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
@@ -4469,10 +4469,10 @@
         <v>32</v>
       </c>
       <c r="W36" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="X36" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
@@ -4560,7 +4560,7 @@
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="P38" s="1" t="s">
         <v>44</v>
@@ -4583,7 +4583,7 @@
         <v>61</v>
       </c>
       <c r="X38" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="Y38" t="s">
         <v>302</v>
@@ -4663,7 +4663,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="11"/>
       <c r="J40" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>374</v>
@@ -4674,7 +4674,7 @@
       </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="P40" s="1" t="s">
         <v>44</v>
@@ -4785,7 +4785,7 @@
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="P42" s="1" t="s">
         <v>44</v>
@@ -4808,7 +4808,7 @@
         <v>45</v>
       </c>
       <c r="X42" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="Y42" t="s">
         <v>376</v>
@@ -4866,10 +4866,10 @@
         <v>205</v>
       </c>
       <c r="W43" s="14" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="X43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="Y43" s="14" t="s">
         <v>384</v>
@@ -4897,7 +4897,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="15" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>385</v>
@@ -4912,7 +4912,7 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q44" s="6" t="s">
         <v>388</v>
@@ -5013,7 +5013,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="15" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J46" s="6" t="s">
         <v>390</v>
@@ -5046,7 +5046,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -5097,10 +5097,10 @@
         <v>25</v>
       </c>
       <c r="V47" t="s">
-        <v>32</v>
-      </c>
-      <c r="W47" t="s">
-        <v>400</v>
+        <v>205</v>
+      </c>
+      <c r="W47" s="14" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="48" spans="1:25" ht="51" x14ac:dyDescent="0.25">
@@ -5152,10 +5152,10 @@
         <v>61</v>
       </c>
       <c r="X48" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="Y48" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="49" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
@@ -5206,7 +5206,7 @@
         <v>61</v>
       </c>
       <c r="X49" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Y49" t="s">
         <v>198</v>
@@ -5286,7 +5286,7 @@
         <v>189</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -5295,7 +5295,7 @@
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
@@ -5413,10 +5413,10 @@
         <v>61</v>
       </c>
       <c r="X53" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Y53" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="54" spans="1:25" ht="28.5" x14ac:dyDescent="0.25">
@@ -5444,20 +5444,20 @@
         <v>189</v>
       </c>
       <c r="J54" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="K54" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>404</v>
       </c>
       <c r="L54" s="1"/>
       <c r="M54" s="11" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
@@ -5499,18 +5499,18 @@
         <v>189</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="11" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
@@ -5524,7 +5524,7 @@
         <v>38</v>
       </c>
       <c r="W55" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="Y55" t="s">
         <v>198</v>
@@ -5555,18 +5555,18 @@
         <v>189</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
@@ -5580,7 +5580,7 @@
         <v>38</v>
       </c>
       <c r="W56" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="Y56" t="s">
         <v>198</v>
@@ -5611,18 +5611,18 @@
         <v>189</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
@@ -5636,7 +5636,7 @@
         <v>38</v>
       </c>
       <c r="W57" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="Y57" t="s">
         <v>198</v>
@@ -6118,7 +6118,7 @@
         <v>61</v>
       </c>
       <c r="X67" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="Y67" t="s">
         <v>198</v>
@@ -6173,7 +6173,7 @@
         <v>61</v>
       </c>
       <c r="X68" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="Y68" t="s">
         <v>198</v>
@@ -6228,7 +6228,7 @@
         <v>61</v>
       </c>
       <c r="X69" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Y69" t="s">
         <v>198</v>
@@ -6259,7 +6259,7 @@
         <v>241</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
@@ -6280,10 +6280,10 @@
         <v>205</v>
       </c>
       <c r="W70" s="14" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="X70" s="14" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Y70" t="s">
         <v>198</v>
@@ -6314,7 +6314,7 @@
         <v>241</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
@@ -6335,7 +6335,7 @@
         <v>205</v>
       </c>
       <c r="W71" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Y71" t="s">
         <v>198</v>
@@ -6366,7 +6366,7 @@
         <v>241</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
@@ -6387,7 +6387,7 @@
         <v>205</v>
       </c>
       <c r="W72" s="14" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="Y72" t="s">
         <v>198</v>
@@ -6565,7 +6565,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="11"/>
       <c r="J76" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
@@ -6586,10 +6586,10 @@
         <v>32</v>
       </c>
       <c r="W76" s="14" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="Y76" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="77" spans="1:25" ht="390" x14ac:dyDescent="0.25">
@@ -6615,7 +6615,7 @@
         <v>264</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
@@ -6636,13 +6636,13 @@
         <v>205</v>
       </c>
       <c r="W77" s="14" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="X77" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="Y77" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="78" spans="1:25" ht="75" x14ac:dyDescent="0.25">
@@ -6670,7 +6670,7 @@
         <v>268</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
@@ -6679,7 +6679,7 @@
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="R78" s="1"/>
       <c r="S78" s="6"/>
@@ -6693,7 +6693,7 @@
         <v>205</v>
       </c>
       <c r="W78" s="14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Y78" t="s">
         <v>198</v>
@@ -6751,7 +6751,7 @@
         <v>61</v>
       </c>
       <c r="Y79" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="80" spans="1:25" ht="409.5" x14ac:dyDescent="0.25">
@@ -6779,7 +6779,7 @@
         <v>189</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
@@ -6790,7 +6790,7 @@
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
       <c r="S80" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="T80" s="7" t="s">
         <v>24</v>
@@ -6802,7 +6802,7 @@
         <v>205</v>
       </c>
       <c r="W80" s="14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="Y80" t="s">
         <v>198</v>
@@ -6833,18 +6833,18 @@
         <v>189</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="15" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
       <c r="Q81" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="R81" s="1"/>
       <c r="S81" s="6"/>
@@ -6858,7 +6858,7 @@
         <v>205</v>
       </c>
       <c r="W81" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="82" spans="1:25" ht="409.5" x14ac:dyDescent="0.25">
@@ -6886,7 +6886,7 @@
         <v>189</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
@@ -6897,7 +6897,7 @@
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
       <c r="S82" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="T82" s="7" t="s">
         <v>24</v>
@@ -6909,7 +6909,7 @@
         <v>205</v>
       </c>
       <c r="W82" s="14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="Y82" t="s">
         <v>198</v>

--- a/data_processing_elements-SHS.xlsx
+++ b/data_processing_elements-SHS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100ECC84-4E17-4B36-964F-3F4494B42AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611EC3CC-BFEF-4592-836D-F1E9DEBD93BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
@@ -2366,10 +2366,10 @@
   <dimension ref="A1:AD84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="S17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="S14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W46" sqref="W46"/>
+      <selection pane="bottomRight" activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="54.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3958,7 +3958,7 @@
         <v>50</v>
       </c>
       <c r="V27" t="s">
-        <v>32</v>
+        <v>205</v>
       </c>
       <c r="W27" s="14" t="s">
         <v>496</v>
